--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_29.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/75/Output_6_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1590782.801181064</v>
+        <v>1589460.237369128</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5866991.033948779</v>
+        <v>5866991.033948781</v>
       </c>
     </row>
     <row r="8">
@@ -661,19 +661,19 @@
         <v>6.11896786784456</v>
       </c>
       <c r="C2" t="n">
-        <v>406.0233447798626</v>
+        <v>6.023344779862555</v>
       </c>
       <c r="D2" t="n">
         <v>0.4192906078700389</v>
       </c>
       <c r="E2" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F2" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G2" t="n">
-        <v>404.6410012660961</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H2" t="n">
         <v>307.7994123985592</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>253.8526731989415</v>
       </c>
       <c r="Y2" t="n">
-        <v>388.5171206615436</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -822,22 +822,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H4" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>32.33005497738836</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T4" t="n">
-        <v>80.1487404325824</v>
+        <v>237.1532516330649</v>
       </c>
       <c r="U4" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>235.9604235189134</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>406.1189678678446</v>
+        <v>6.11896786784456</v>
       </c>
       <c r="C5" t="n">
         <v>406.0233447798626</v>
@@ -904,13 +904,13 @@
         <v>400.41929060787</v>
       </c>
       <c r="E5" t="n">
-        <v>410.1968133282722</v>
+        <v>10.19681332827224</v>
       </c>
       <c r="F5" t="n">
-        <v>16.8201079258493</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G5" t="n">
-        <v>386.4457793822962</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>247.8765136623598</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1068,10 +1068,10 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,10 +1110,10 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>169.9862858086842</v>
       </c>
       <c r="V7" t="n">
-        <v>176.767220848517</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>276.2789678462144</v>
@@ -1122,7 +1122,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y7" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,22 +1132,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.11896786784456</v>
+        <v>260.7078240755476</v>
       </c>
       <c r="C8" t="n">
-        <v>6.023344779862555</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D8" t="n">
-        <v>0.4192906078700389</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E8" t="n">
-        <v>10.19681332827224</v>
+        <v>410.1968133282722</v>
       </c>
       <c r="F8" t="n">
         <v>16.8201079258493</v>
       </c>
       <c r="G8" t="n">
-        <v>116.3465974353855</v>
+        <v>4.641001266096112</v>
       </c>
       <c r="H8" t="n">
         <v>307.7994123985592</v>
@@ -1186,19 +1186,19 @@
         <v>133.9282644538401</v>
       </c>
       <c r="T8" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>396.636963852737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1299,16 +1299,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I10" t="n">
         <v>115.1825854367171</v>
@@ -1347,16 +1347,16 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U10" t="n">
-        <v>279.9701659793371</v>
+        <v>256.8454395874278</v>
       </c>
       <c r="V10" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>65.42520756919141</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D11" t="n">
-        <v>43.42340976889791</v>
+        <v>43.42340976889702</v>
       </c>
       <c r="E11" t="n">
         <v>410.1968133282722</v>
@@ -1530,25 +1530,25 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C13" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>43.45102918871032</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,28 +1575,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>237.1532516330649</v>
+        <v>42.43741174507654</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="14">
@@ -1612,7 +1612,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D14" t="n">
-        <v>400.41929060787</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>410.1968133282722</v>
@@ -1657,13 +1657,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>91.86342916663969</v>
       </c>
       <c r="T14" t="n">
-        <v>165.9184445944652</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V14" t="n">
         <v>346.3391791168841</v>
@@ -1767,19 +1767,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>237.1532516330649</v>
@@ -1824,16 +1824,16 @@
         <v>279.9701659793371</v>
       </c>
       <c r="V16" t="n">
-        <v>271.1468876098733</v>
+        <v>44.27069204022691</v>
       </c>
       <c r="W16" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>180.6077930059089</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="17">
@@ -1849,7 +1849,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D17" t="n">
-        <v>212.4250515358844</v>
+        <v>362.5761659788956</v>
       </c>
       <c r="E17" t="n">
         <v>410.1968133282722</v>
@@ -1858,7 +1858,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G17" t="n">
-        <v>404.6410012660961</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>307.7994123985592</v>
@@ -1900,7 +1900,7 @@
         <v>219.9844192126098</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>254.489886823085</v>
       </c>
       <c r="V17" t="n">
         <v>346.3391791168841</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.96543686894752</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C19" t="n">
         <v>169.3824387139007</v>
@@ -2016,13 +2016,13 @@
         <v>162.9848146305146</v>
       </c>
       <c r="G19" t="n">
-        <v>165.577887163712</v>
+        <v>123.5859670628297</v>
       </c>
       <c r="H19" t="n">
         <v>148.1113806425979</v>
       </c>
       <c r="I19" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>84.41999114135434</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -2064,13 +2064,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="20">
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>406.1189678678446</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>406.0233447798626</v>
@@ -2092,13 +2092,13 @@
         <v>410.1968133282722</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>416.8201079258493</v>
       </c>
       <c r="G20" t="n">
         <v>404.6410012660961</v>
       </c>
       <c r="H20" t="n">
-        <v>307.7994123985592</v>
+        <v>271.4342543713333</v>
       </c>
       <c r="I20" t="n">
         <v>85.48824505609757</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>108.2642464846189</v>
+        <v>133.9282644538401</v>
       </c>
       <c r="T20" t="n">
         <v>219.9844192126098</v>
@@ -2241,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,16 +2250,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.577887163712</v>
       </c>
       <c r="H22" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T22" t="n">
         <v>237.1532516330649</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V22" t="n">
-        <v>3.473158069006415</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W22" t="n">
-        <v>276.2789678462144</v>
+        <v>153.2405232046425</v>
       </c>
       <c r="X22" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="23">
@@ -2332,13 +2332,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G23" t="n">
-        <v>177.7694914447158</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H23" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I23" t="n">
-        <v>78.88597920914971</v>
+        <v>78.88597920914972</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>130.0258162860864</v>
+        <v>130.0258162860865</v>
       </c>
       <c r="T23" t="n">
         <v>219.234755280439</v>
@@ -2380,7 +2380,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W23" t="n">
-        <v>379.9226978561831</v>
+        <v>153.2224419313576</v>
       </c>
       <c r="X23" t="n">
         <v>396.636963852737</v>
@@ -2417,7 +2417,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I24" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794516</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2475,25 +2475,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E25" t="n">
-        <v>65.05475432321128</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F25" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I25" t="n">
         <v>112.8724405582094</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>80.96594743848281</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>138.6354313661955</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2575,7 +2575,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I26" t="n">
-        <v>78.88597920914971</v>
+        <v>78.88597920914972</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>130.0258162860864</v>
+        <v>130.0258162860865</v>
       </c>
       <c r="T26" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U26" t="n">
-        <v>27.77593058653632</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V26" t="n">
         <v>346.3391791168841</v>
@@ -2623,7 +2623,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y26" t="n">
-        <v>396.9273063213908</v>
+        <v>170.2270503965652</v>
       </c>
     </row>
     <row r="27">
@@ -2654,7 +2654,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I27" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794516</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>147.4283934324466</v>
       </c>
       <c r="I28" t="n">
-        <v>112.8724405582094</v>
+        <v>30.92541098315525</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X28" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>91.59089482039479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2812,7 +2812,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I29" t="n">
-        <v>78.88597920914971</v>
+        <v>78.88597920914972</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>122.5603156417014</v>
+        <v>130.0258162860865</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>219.234755280439</v>
       </c>
       <c r="U29" t="n">
         <v>254.4761865113606</v>
@@ -2860,7 +2860,7 @@
         <v>396.636963852737</v>
       </c>
       <c r="Y29" t="n">
-        <v>396.9273063213908</v>
+        <v>170.2270503965652</v>
       </c>
     </row>
     <row r="30">
@@ -2891,7 +2891,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I30" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794516</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2955,10 +2955,10 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D31" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2967,10 +2967,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>80.96594743848281</v>
       </c>
       <c r="S31" t="n">
         <v>183.1891117048806</v>
@@ -3009,13 +3009,13 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>210.3162381271479</v>
       </c>
       <c r="W31" t="n">
-        <v>274.7001586729052</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X31" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>222.4883416251229</v>
@@ -3034,7 +3034,7 @@
         <v>406.0233447798626</v>
       </c>
       <c r="D32" t="n">
-        <v>173.7190346830451</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E32" t="n">
         <v>410.1968133282722</v>
@@ -3043,13 +3043,13 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G32" t="n">
-        <v>404.4697473695408</v>
+        <v>256.6554706538646</v>
       </c>
       <c r="H32" t="n">
         <v>306.0455584304623</v>
       </c>
       <c r="I32" t="n">
-        <v>78.88597920914971</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>130.0258162860864</v>
+        <v>130.0258162860865</v>
       </c>
       <c r="T32" t="n">
         <v>219.234755280439</v>
@@ -3128,7 +3128,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I33" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794516</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3207,7 +3207,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>37.88432998251123</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848281</v>
       </c>
       <c r="S34" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U34" t="n">
-        <v>279.9659758737533</v>
+        <v>132.3621876233499</v>
       </c>
       <c r="V34" t="n">
         <v>271.1468876098733</v>
@@ -3252,10 +3252,10 @@
         <v>276.2789678462144</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y34" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3268,7 +3268,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C35" t="n">
-        <v>406.0233447798626</v>
+        <v>179.3230888550377</v>
       </c>
       <c r="D35" t="n">
         <v>400.41929060787</v>
@@ -3286,7 +3286,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I35" t="n">
-        <v>78.88597920914971</v>
+        <v>78.88597920914972</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>130.0258162860864</v>
+        <v>130.0258162860865</v>
       </c>
       <c r="T35" t="n">
         <v>219.234755280439</v>
@@ -3328,7 +3328,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W35" t="n">
-        <v>153.2224419313585</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X35" t="n">
         <v>396.636963852737</v>
@@ -3365,7 +3365,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I36" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794516</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C37" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>162.9848146305146</v>
@@ -3441,10 +3441,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H37" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>170.2936400606968</v>
+        <v>68.56137565442327</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="38">
@@ -3502,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>406.1189678678446</v>
+        <v>179.41871194302</v>
       </c>
       <c r="C38" t="n">
         <v>406.0233447798626</v>
@@ -3523,7 +3523,7 @@
         <v>306.0455584304623</v>
       </c>
       <c r="I38" t="n">
-        <v>78.88597920914971</v>
+        <v>78.88597920914972</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,13 +3553,13 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>130.0258162860864</v>
+        <v>130.0258162860865</v>
       </c>
       <c r="T38" t="n">
         <v>219.234755280439</v>
       </c>
       <c r="U38" t="n">
-        <v>27.77593058653722</v>
+        <v>254.4761865113606</v>
       </c>
       <c r="V38" t="n">
         <v>346.3391791168841</v>
@@ -3602,7 +3602,7 @@
         <v>69.15479844121262</v>
       </c>
       <c r="I39" t="n">
-        <v>17.38633807794515</v>
+        <v>17.38633807794516</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3663,19 +3663,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C40" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3711,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>129.4033871859277</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>160.2222321506102</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X40" t="n">
         <v>235.9604235189134</v>
@@ -3742,7 +3742,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C41" t="n">
-        <v>406.0233447798626</v>
+        <v>179.3230888550377</v>
       </c>
       <c r="D41" t="n">
         <v>400.41929060787</v>
@@ -3754,7 +3754,7 @@
         <v>416.8201079258493</v>
       </c>
       <c r="G41" t="n">
-        <v>177.7694914447158</v>
+        <v>404.4697473695408</v>
       </c>
       <c r="H41" t="n">
         <v>306.0455584304623</v>
@@ -3903,7 +3903,7 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D43" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>159.3017069803637</v>
@@ -3945,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>279.9659758737533</v>
       </c>
       <c r="V43" t="n">
-        <v>24.09702927570282</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>22.29592899099325</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3979,7 +3979,7 @@
         <v>406.1189678678446</v>
       </c>
       <c r="C44" t="n">
-        <v>179.3230888550377</v>
+        <v>406.0233447798626</v>
       </c>
       <c r="D44" t="n">
         <v>400.41929060787</v>
@@ -4036,7 +4036,7 @@
         <v>254.4761865113606</v>
       </c>
       <c r="V44" t="n">
-        <v>346.3391791168841</v>
+        <v>119.6389231920598</v>
       </c>
       <c r="W44" t="n">
         <v>379.9226978561831</v>
@@ -4152,10 +4152,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H46" t="n">
-        <v>71.00159291663702</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>80.9659474384828</v>
       </c>
       <c r="S46" t="n">
-        <v>183.1891117048806</v>
+        <v>92.65971807855783</v>
       </c>
       <c r="T46" t="n">
         <v>236.8250266956711</v>
@@ -4194,7 +4194,7 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4203,7 +4203,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.631969834255</v>
+        <v>477.5107577130435</v>
       </c>
       <c r="C2" t="n">
-        <v>1279.507379147526</v>
+        <v>471.4265710667177</v>
       </c>
       <c r="D2" t="n">
-        <v>1279.08385328099</v>
+        <v>471.0030452001823</v>
       </c>
       <c r="E2" t="n">
-        <v>864.7436377978871</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F2" t="n">
-        <v>847.7536297919787</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G2" t="n">
         <v>439.0253456848109</v>
@@ -4330,52 +4330,52 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J2" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K2" t="n">
-        <v>537.7254774811266</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L2" t="n">
-        <v>1054.568412147452</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M2" t="n">
-        <v>1054.568412147452</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N2" t="n">
-        <v>1571.411346813777</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O2" t="n">
-        <v>2088.254281480102</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="P2" t="n">
-        <v>2088.254281480102</v>
+        <v>1726.536628995245</v>
       </c>
       <c r="Q2" t="n">
-        <v>2088.254281480102</v>
+        <v>2047.697635790537</v>
       </c>
       <c r="R2" t="n">
         <v>2088.254281480102</v>
       </c>
       <c r="S2" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T2" t="n">
-        <v>2088.254281480102</v>
+        <v>1730.766722221062</v>
       </c>
       <c r="U2" t="n">
-        <v>2088.254281480102</v>
+        <v>1473.706230480572</v>
       </c>
       <c r="V2" t="n">
-        <v>2088.254281480102</v>
+        <v>1123.868675817053</v>
       </c>
       <c r="W2" t="n">
-        <v>2088.254281480102</v>
+        <v>740.1083749522213</v>
       </c>
       <c r="X2" t="n">
-        <v>2088.254281480102</v>
+        <v>483.6915333371289</v>
       </c>
       <c r="Y2" t="n">
-        <v>1695.812745458341</v>
+        <v>483.6915333371289</v>
       </c>
     </row>
     <row r="3">
@@ -4409,25 +4409,25 @@
         <v>41.76508562960225</v>
       </c>
       <c r="J3" t="n">
-        <v>41.76508562960225</v>
+        <v>234.5779431922355</v>
       </c>
       <c r="K3" t="n">
-        <v>41.76508562960225</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="L3" t="n">
-        <v>508.1659581184966</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="M3" t="n">
-        <v>508.1659581184966</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="N3" t="n">
-        <v>1025.008892784822</v>
+        <v>690.3841994575342</v>
       </c>
       <c r="O3" t="n">
-        <v>1541.851827451147</v>
+        <v>1192.007362767164</v>
       </c>
       <c r="P3" t="n">
-        <v>2058.694762117472</v>
+        <v>1708.850297433489</v>
       </c>
       <c r="Q3" t="n">
         <v>2058.694762117472</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>191.3725408241454</v>
+        <v>649.4872931662312</v>
       </c>
       <c r="C4" t="n">
-        <v>191.3725408241454</v>
+        <v>649.4872931662312</v>
       </c>
       <c r="D4" t="n">
-        <v>191.3725408241454</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="E4" t="n">
-        <v>191.3725408241454</v>
+        <v>489.9926484891412</v>
       </c>
       <c r="F4" t="n">
-        <v>191.3725408241454</v>
+        <v>325.3615225997325</v>
       </c>
       <c r="G4" t="n">
-        <v>191.3725408241454</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="H4" t="n">
-        <v>41.76508562960205</v>
+        <v>158.1111315252759</v>
       </c>
       <c r="I4" t="n">
         <v>41.76508562960205</v>
@@ -4512,28 +4512,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R4" t="n">
-        <v>1571.163982250452</v>
+        <v>1538.507361061171</v>
       </c>
       <c r="S4" t="n">
-        <v>1571.163982250452</v>
+        <v>1352.115592941081</v>
       </c>
       <c r="T4" t="n">
-        <v>1490.205658581177</v>
+        <v>1112.566853917783</v>
       </c>
       <c r="U4" t="n">
-        <v>1207.407511127301</v>
+        <v>1112.566853917783</v>
       </c>
       <c r="V4" t="n">
-        <v>933.5217660668229</v>
+        <v>1112.566853917783</v>
       </c>
       <c r="W4" t="n">
-        <v>654.4521015756973</v>
+        <v>1112.566853917783</v>
       </c>
       <c r="X4" t="n">
-        <v>416.1082394353807</v>
+        <v>874.2229917774665</v>
       </c>
       <c r="Y4" t="n">
-        <v>191.3725408241454</v>
+        <v>649.4872931662312</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1678.033101815613</v>
+        <v>1696.412113819451</v>
       </c>
       <c r="C5" t="n">
-        <v>1267.908511128883</v>
+        <v>1286.287523132721</v>
       </c>
       <c r="D5" t="n">
-        <v>863.4445812219433</v>
+        <v>881.8235932257816</v>
       </c>
       <c r="E5" t="n">
-        <v>449.10436573884</v>
+        <v>871.5237817830823</v>
       </c>
       <c r="F5" t="n">
-        <v>432.1143577329316</v>
+        <v>450.4933697367699</v>
       </c>
       <c r="G5" t="n">
         <v>41.76508562960205</v>
@@ -4567,19 +4567,19 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J5" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K5" t="n">
-        <v>41.76508562960205</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="L5" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="M5" t="n">
-        <v>176.0078249962696</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N5" t="n">
-        <v>692.8507596625949</v>
+        <v>1209.69369432892</v>
       </c>
       <c r="O5" t="n">
         <v>1209.69369432892</v>
@@ -4594,25 +4594,25 @@
         <v>2088.254281480102</v>
       </c>
       <c r="S5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="T5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V5" t="n">
-        <v>2088.254281480102</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="X5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
       <c r="Y5" t="n">
-        <v>2088.254281480102</v>
+        <v>1702.592889443536</v>
       </c>
     </row>
     <row r="6">
@@ -4652,22 +4652,22 @@
         <v>690.384199457534</v>
       </c>
       <c r="L6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M6" t="n">
-        <v>1207.227134123859</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N6" t="n">
-        <v>1207.227134123859</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="O6" t="n">
-        <v>1724.070068790184</v>
+        <v>1192.007362767163</v>
       </c>
       <c r="P6" t="n">
-        <v>1738.409816796118</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q6" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R6" t="n">
         <v>2088.254281480102</v>
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>377.4895839572943</v>
+        <v>694.3474302262943</v>
       </c>
       <c r="C7" t="n">
-        <v>206.3962115190108</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="D7" t="n">
-        <v>206.3962115190108</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="E7" t="n">
-        <v>206.3962115190108</v>
+        <v>523.2540577880108</v>
       </c>
       <c r="F7" t="n">
-        <v>41.76508562960205</v>
+        <v>358.622931898602</v>
       </c>
       <c r="G7" t="n">
-        <v>41.76508562960205</v>
+        <v>191.3725408241454</v>
       </c>
       <c r="H7" t="n">
         <v>41.76508562960205</v>
@@ -4749,28 +4749,28 @@
         <v>1571.163982250452</v>
       </c>
       <c r="R7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="S7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="T7" t="n">
-        <v>1485.891263925851</v>
+        <v>1571.163982250452</v>
       </c>
       <c r="U7" t="n">
-        <v>1485.891263925851</v>
+        <v>1399.460663251781</v>
       </c>
       <c r="V7" t="n">
-        <v>1307.338515594016</v>
+        <v>1399.460663251781</v>
       </c>
       <c r="W7" t="n">
-        <v>1028.26885110289</v>
+        <v>1120.390998760655</v>
       </c>
       <c r="X7" t="n">
-        <v>789.9249889625739</v>
+        <v>882.0471366203386</v>
       </c>
       <c r="Y7" t="n">
-        <v>565.1892903513386</v>
+        <v>882.0471366203386</v>
       </c>
     </row>
     <row r="8">
@@ -4780,19 +4780,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>590.3446932375783</v>
+        <v>1689.631969834256</v>
       </c>
       <c r="C8" t="n">
-        <v>584.2605065912525</v>
+        <v>1279.507379147526</v>
       </c>
       <c r="D8" t="n">
-        <v>583.836980724717</v>
+        <v>875.0434492405864</v>
       </c>
       <c r="E8" t="n">
-        <v>573.5371692820178</v>
+        <v>460.703233757483</v>
       </c>
       <c r="F8" t="n">
-        <v>556.5471612761094</v>
+        <v>443.7132257515746</v>
       </c>
       <c r="G8" t="n">
         <v>439.0253456848109</v>
@@ -4804,28 +4804,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J8" t="n">
-        <v>41.76508562960205</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="K8" t="n">
-        <v>558.6080202959273</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="L8" t="n">
-        <v>1014.011766457887</v>
+        <v>295.9505570973564</v>
       </c>
       <c r="M8" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="N8" t="n">
-        <v>1014.011766457887</v>
+        <v>812.7934917636817</v>
       </c>
       <c r="O8" t="n">
-        <v>1530.854701124212</v>
+        <v>1250.250340018485</v>
       </c>
       <c r="P8" t="n">
-        <v>2047.697635790537</v>
+        <v>1767.09327468481</v>
       </c>
       <c r="Q8" t="n">
-        <v>2047.697635790537</v>
+        <v>2088.254281480102</v>
       </c>
       <c r="R8" t="n">
         <v>2088.254281480102</v>
@@ -4834,22 +4834,22 @@
         <v>1952.973206274203</v>
       </c>
       <c r="T8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="U8" t="n">
-        <v>1730.766722221062</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="V8" t="n">
-        <v>1380.929167557543</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="W8" t="n">
-        <v>997.1688666927112</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="X8" t="n">
-        <v>596.5254688616637</v>
+        <v>1952.973206274203</v>
       </c>
       <c r="Y8" t="n">
-        <v>596.5254688616637</v>
+        <v>1952.973206274203</v>
       </c>
     </row>
     <row r="9">
@@ -4883,28 +4883,28 @@
         <v>41.76508562960205</v>
       </c>
       <c r="J9" t="n">
-        <v>41.76508562960205</v>
+        <v>234.5779431922353</v>
       </c>
       <c r="K9" t="n">
-        <v>41.76508562960205</v>
+        <v>690.384199457534</v>
       </c>
       <c r="L9" t="n">
-        <v>558.6080202959273</v>
+        <v>690.384199457534</v>
       </c>
       <c r="M9" t="n">
-        <v>1075.450954962253</v>
+        <v>690.384199457534</v>
       </c>
       <c r="N9" t="n">
-        <v>1571.411346813777</v>
+        <v>690.384199457534</v>
       </c>
       <c r="O9" t="n">
-        <v>2088.254281480102</v>
+        <v>1207.227134123859</v>
       </c>
       <c r="P9" t="n">
-        <v>2088.254281480102</v>
+        <v>1708.850297433488</v>
       </c>
       <c r="Q9" t="n">
-        <v>2088.254281480102</v>
+        <v>2058.694762117472</v>
       </c>
       <c r="R9" t="n">
         <v>2088.254281480102</v>
@@ -4938,22 +4938,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="C10" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="D10" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="E10" t="n">
-        <v>158.1111315252759</v>
+        <v>639.6001036836846</v>
       </c>
       <c r="F10" t="n">
-        <v>158.1111315252759</v>
+        <v>474.9689777942758</v>
       </c>
       <c r="G10" t="n">
-        <v>158.1111315252759</v>
+        <v>307.7185867198193</v>
       </c>
       <c r="H10" t="n">
         <v>158.1111315252759</v>
@@ -4995,19 +4995,19 @@
         <v>1059.950756782464</v>
       </c>
       <c r="U10" t="n">
-        <v>777.1526093285881</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="V10" t="n">
-        <v>503.2668642681101</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="W10" t="n">
-        <v>224.1971997769844</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="X10" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
       <c r="Y10" t="n">
-        <v>158.1111315252759</v>
+        <v>800.5109188153651</v>
       </c>
     </row>
     <row r="11">
@@ -5017,10 +5017,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2102.237727455812</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C11" t="n">
-        <v>1692.113136769082</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D11" t="n">
         <v>1648.251106699488</v>
@@ -5035,13 +5035,13 @@
         <v>404.1521950629048</v>
       </c>
       <c r="H11" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I11" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J11" t="n">
-        <v>347.4291691583776</v>
+        <v>347.4291691583771</v>
       </c>
       <c r="K11" t="n">
         <v>885.5886702674165</v>
@@ -5062,31 +5062,31 @@
         <v>4300.467232046283</v>
       </c>
       <c r="Q11" t="n">
-        <v>4621.628238841576</v>
+        <v>4621.628238841575</v>
       </c>
       <c r="R11" t="n">
-        <v>4662.184884531141</v>
+        <v>4662.18488453114</v>
       </c>
       <c r="S11" t="n">
-        <v>4526.903809325241</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T11" t="n">
-        <v>4304.6973252721</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U11" t="n">
-        <v>4047.63683353161</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V11" t="n">
-        <v>3697.799278868091</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W11" t="n">
-        <v>3314.038978003259</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X11" t="n">
-        <v>2913.395580172212</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y11" t="n">
-        <v>2512.458907120302</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="12">
@@ -5108,7 +5108,7 @@
         <v>400.6894945378233</v>
       </c>
       <c r="F12" t="n">
-        <v>291.7296147203279</v>
+        <v>291.7296147203278</v>
       </c>
       <c r="G12" t="n">
         <v>184.7395020346666</v>
@@ -5117,31 +5117,31 @@
         <v>113.9922890703826</v>
       </c>
       <c r="I12" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J12" t="n">
-        <v>93.24369769062281</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K12" t="n">
-        <v>93.24369769062281</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L12" t="n">
-        <v>93.24369769062281</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="M12" t="n">
-        <v>562.1177108836107</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="N12" t="n">
-        <v>1435.775802995229</v>
+        <v>844.5103911440685</v>
       </c>
       <c r="O12" t="n">
-        <v>2139.732893541123</v>
+        <v>1548.467481689963</v>
       </c>
       <c r="P12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="Q12" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R12" t="n">
         <v>2139.732893541123</v>
@@ -5175,28 +5175,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1110.12143056953</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="C13" t="n">
-        <v>939.0280581312468</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="D13" t="n">
-        <v>779.5334134541567</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="E13" t="n">
-        <v>618.6225983224763</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="F13" t="n">
-        <v>453.9914724330675</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="G13" t="n">
-        <v>286.7410813586109</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H13" t="n">
-        <v>137.1336261640676</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I13" t="n">
-        <v>93.24369769062281</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="J13" t="n">
         <v>107.3262470958333</v>
@@ -5223,28 +5223,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S13" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T13" t="n">
-        <v>1297.821136963575</v>
+        <v>1579.776521841699</v>
       </c>
       <c r="U13" t="n">
-        <v>1297.821136963575</v>
+        <v>1296.978374387823</v>
       </c>
       <c r="V13" t="n">
-        <v>1297.821136963575</v>
+        <v>1023.092629327345</v>
       </c>
       <c r="W13" t="n">
-        <v>1297.821136963575</v>
+        <v>744.0229648362191</v>
       </c>
       <c r="X13" t="n">
-        <v>1297.821136963575</v>
+        <v>505.6791026959025</v>
       </c>
       <c r="Y13" t="n">
-        <v>1297.821136963575</v>
+        <v>280.9434040846672</v>
       </c>
     </row>
     <row r="14">
@@ -5254,10 +5254,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2549.191389976085</v>
+        <v>2144.727460069145</v>
       </c>
       <c r="C14" t="n">
-        <v>2139.066799289355</v>
+        <v>1734.602869382415</v>
       </c>
       <c r="D14" t="n">
         <v>1734.602869382415</v>
@@ -5293,7 +5293,7 @@
         <v>3127.679677710027</v>
       </c>
       <c r="O14" t="n">
-        <v>3771.310534127131</v>
+        <v>3771.310534127132</v>
       </c>
       <c r="P14" t="n">
         <v>4300.467232046283</v>
@@ -5305,25 +5305,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S14" t="n">
-        <v>4662.18488453114</v>
+        <v>4569.393541938574</v>
       </c>
       <c r="T14" t="n">
-        <v>4494.590496051882</v>
+        <v>4347.187057885433</v>
       </c>
       <c r="U14" t="n">
-        <v>4494.590496051882</v>
+        <v>4090.126566144943</v>
       </c>
       <c r="V14" t="n">
-        <v>4144.752941388363</v>
+        <v>3740.289011481424</v>
       </c>
       <c r="W14" t="n">
-        <v>3760.992640523532</v>
+        <v>3356.528710616592</v>
       </c>
       <c r="X14" t="n">
-        <v>3360.349242692484</v>
+        <v>2955.885312785545</v>
       </c>
       <c r="Y14" t="n">
-        <v>2959.412569640574</v>
+        <v>2554.948639733635</v>
       </c>
     </row>
     <row r="15">
@@ -5360,25 +5360,25 @@
         <v>93.2436976906228</v>
       </c>
       <c r="K15" t="n">
-        <v>93.2436976906228</v>
+        <v>549.0499539559215</v>
       </c>
       <c r="L15" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M15" t="n">
-        <v>562.1177108836107</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N15" t="n">
-        <v>1435.775802995229</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O15" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P15" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q15" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R15" t="n">
         <v>2139.732893541123</v>
@@ -5412,19 +5412,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>93.2436976906228</v>
+        <v>592.4982763350433</v>
       </c>
       <c r="C16" t="n">
-        <v>93.2436976906228</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="D16" t="n">
-        <v>93.2436976906228</v>
+        <v>421.4049038967599</v>
       </c>
       <c r="E16" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F16" t="n">
-        <v>93.2436976906228</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G16" t="n">
         <v>93.2436976906228</v>
@@ -5460,28 +5460,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R16" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S16" t="n">
-        <v>1350.978107866783</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="T16" t="n">
-        <v>1111.429368843485</v>
+        <v>1383.093855288175</v>
       </c>
       <c r="U16" t="n">
-        <v>828.6312213896092</v>
+        <v>1100.295707834299</v>
       </c>
       <c r="V16" t="n">
-        <v>554.7454763291312</v>
+        <v>1055.577837086595</v>
       </c>
       <c r="W16" t="n">
-        <v>275.6758118380055</v>
+        <v>1055.577837086595</v>
       </c>
       <c r="X16" t="n">
-        <v>93.2436976906228</v>
+        <v>817.2339749462786</v>
       </c>
       <c r="Y16" t="n">
-        <v>93.2436976906228</v>
+        <v>592.4982763350433</v>
       </c>
     </row>
     <row r="17">
@@ -5491,19 +5491,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2359.298219196301</v>
+        <v>2102.237727455811</v>
       </c>
       <c r="C17" t="n">
-        <v>1949.173628509571</v>
+        <v>1692.113136769081</v>
       </c>
       <c r="D17" t="n">
-        <v>1734.602869382415</v>
+        <v>1325.874585275247</v>
       </c>
       <c r="E17" t="n">
-        <v>1320.262653899312</v>
+        <v>911.5343697921442</v>
       </c>
       <c r="F17" t="n">
-        <v>899.2322418529996</v>
+        <v>490.5039577458317</v>
       </c>
       <c r="G17" t="n">
         <v>490.5039577458317</v>
@@ -5518,7 +5518,7 @@
         <v>347.4291691583771</v>
       </c>
       <c r="K17" t="n">
-        <v>885.5886702674165</v>
+        <v>885.5886702674168</v>
       </c>
       <c r="L17" t="n">
         <v>1598.180070079655</v>
@@ -5548,19 +5548,19 @@
         <v>4304.697325272099</v>
       </c>
       <c r="U17" t="n">
-        <v>4304.697325272099</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V17" t="n">
-        <v>3954.85977060858</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W17" t="n">
-        <v>3571.099469743748</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.456071912701</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y17" t="n">
-        <v>2769.519398860791</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="18">
@@ -5594,28 +5594,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J18" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L18" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="M18" t="n">
-        <v>562.1177108836107</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="N18" t="n">
-        <v>1435.775802995229</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="O18" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P18" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q18" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R18" t="n">
         <v>2139.732893541123</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1182.57754799176</v>
+        <v>1023.815421186103</v>
       </c>
       <c r="C19" t="n">
-        <v>1011.484175553476</v>
+        <v>852.7220487478198</v>
       </c>
       <c r="D19" t="n">
-        <v>851.989530876386</v>
+        <v>693.2274040707298</v>
       </c>
       <c r="E19" t="n">
-        <v>691.0787157447054</v>
+        <v>532.3165889390493</v>
       </c>
       <c r="F19" t="n">
-        <v>526.4475898552967</v>
+        <v>367.6854630496406</v>
       </c>
       <c r="G19" t="n">
-        <v>359.19719878084</v>
+        <v>242.8511528851661</v>
       </c>
       <c r="H19" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I19" t="n">
         <v>93.2436976906228</v>
@@ -5697,28 +5697,28 @@
         <v>1622.642594311473</v>
       </c>
       <c r="R19" t="n">
-        <v>1537.369875986873</v>
+        <v>1622.642594311473</v>
       </c>
       <c r="S19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="U19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="V19" t="n">
-        <v>1537.369875986873</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="W19" t="n">
-        <v>1258.300211495747</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="X19" t="n">
-        <v>1258.300211495747</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="Y19" t="n">
-        <v>1258.300211495747</v>
+        <v>1211.515127580148</v>
       </c>
     </row>
     <row r="20">
@@ -5728,22 +5728,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2128.160977929772</v>
+        <v>2512.458907120301</v>
       </c>
       <c r="C20" t="n">
-        <v>1718.036387243042</v>
+        <v>2102.334316433571</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.572457336103</v>
+        <v>1697.870386526632</v>
       </c>
       <c r="E20" t="n">
-        <v>899.2322418529996</v>
+        <v>1283.530171043528</v>
       </c>
       <c r="F20" t="n">
-        <v>899.2322418529996</v>
+        <v>862.4997589972158</v>
       </c>
       <c r="G20" t="n">
-        <v>490.5039577458317</v>
+        <v>453.771474890048</v>
       </c>
       <c r="H20" t="n">
         <v>179.5954603735497</v>
@@ -5752,16 +5752,16 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J20" t="n">
-        <v>347.4291691583771</v>
+        <v>347.4291691583776</v>
       </c>
       <c r="K20" t="n">
-        <v>885.5886702674168</v>
+        <v>885.588670267417</v>
       </c>
       <c r="L20" t="n">
         <v>1598.180070079655</v>
       </c>
       <c r="M20" t="n">
-        <v>2374.498661071409</v>
+        <v>2374.49866107141</v>
       </c>
       <c r="N20" t="n">
         <v>3127.679677710027</v>
@@ -5779,25 +5779,25 @@
         <v>4662.18488453114</v>
       </c>
       <c r="S20" t="n">
-        <v>4552.827059799201</v>
+        <v>4526.90380932524</v>
       </c>
       <c r="T20" t="n">
-        <v>4330.62057574606</v>
+        <v>4304.697325272099</v>
       </c>
       <c r="U20" t="n">
-        <v>4073.56008400557</v>
+        <v>4047.636833531609</v>
       </c>
       <c r="V20" t="n">
-        <v>3723.722529342051</v>
+        <v>3697.79927886809</v>
       </c>
       <c r="W20" t="n">
-        <v>3339.962228477219</v>
+        <v>3314.038978003258</v>
       </c>
       <c r="X20" t="n">
-        <v>2939.318830646172</v>
+        <v>2913.395580172211</v>
       </c>
       <c r="Y20" t="n">
-        <v>2538.382157594262</v>
+        <v>2512.458907120301</v>
       </c>
     </row>
     <row r="21">
@@ -5831,28 +5831,28 @@
         <v>93.2436976906228</v>
       </c>
       <c r="J21" t="n">
-        <v>93.2436976906228</v>
+        <v>286.056555253256</v>
       </c>
       <c r="K21" t="n">
-        <v>93.2436976906228</v>
+        <v>741.8628115185547</v>
       </c>
       <c r="L21" t="n">
-        <v>93.2436976906228</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="M21" t="n">
-        <v>936.2207783851894</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="N21" t="n">
-        <v>1809.878870496807</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="O21" t="n">
-        <v>2139.732893541123</v>
+        <v>1198.623017005979</v>
       </c>
       <c r="P21" t="n">
-        <v>2139.732893541123</v>
+        <v>1760.328909494509</v>
       </c>
       <c r="Q21" t="n">
-        <v>2139.732893541123</v>
+        <v>2110.173374178493</v>
       </c>
       <c r="R21" t="n">
         <v>2139.732893541123</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>862.1720881829889</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="C22" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="D22" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="E22" t="n">
-        <v>691.0787157447054</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="F22" t="n">
-        <v>526.4475898552967</v>
+        <v>260.4940887650794</v>
       </c>
       <c r="G22" t="n">
-        <v>359.19719878084</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="H22" t="n">
-        <v>209.5897435862967</v>
+        <v>93.2436976906228</v>
       </c>
       <c r="I22" t="n">
         <v>93.2436976906228</v>
@@ -5937,25 +5937,25 @@
         <v>1622.642594311473</v>
       </c>
       <c r="S22" t="n">
-        <v>1622.642594311473</v>
+        <v>1436.250826191383</v>
       </c>
       <c r="T22" t="n">
-        <v>1383.093855288175</v>
+        <v>1196.702087168085</v>
       </c>
       <c r="U22" t="n">
-        <v>1383.093855288175</v>
+        <v>913.9039397142094</v>
       </c>
       <c r="V22" t="n">
-        <v>1379.585614814431</v>
+        <v>640.0181946537314</v>
       </c>
       <c r="W22" t="n">
-        <v>1100.515950323306</v>
+        <v>485.2297873763147</v>
       </c>
       <c r="X22" t="n">
-        <v>862.1720881829889</v>
+        <v>485.2297873763147</v>
       </c>
       <c r="Y22" t="n">
-        <v>862.1720881829889</v>
+        <v>260.4940887650794</v>
       </c>
     </row>
     <row r="23">
@@ -5965,19 +5965,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C23" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D23" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E23" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F23" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G23" t="n">
         <v>486.2396990962708</v>
@@ -5986,13 +5986,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I23" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J23" t="n">
-        <v>365.9950463732503</v>
+        <v>365.9950463732499</v>
       </c>
       <c r="K23" t="n">
-        <v>925.7208439477955</v>
+        <v>925.7208439477951</v>
       </c>
       <c r="L23" t="n">
         <v>1665.067141547876</v>
@@ -6004,37 +6004,37 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O23" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P23" t="n">
-        <v>4480.322041270214</v>
+        <v>4480.322041270213</v>
       </c>
       <c r="Q23" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344923</v>
       </c>
       <c r="R23" t="n">
         <v>4870.998205338185</v>
       </c>
       <c r="S23" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.6589969684</v>
       </c>
       <c r="T23" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210381</v>
       </c>
       <c r="U23" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168603</v>
       </c>
       <c r="V23" t="n">
-        <v>3911.325541505085</v>
+        <v>3911.325541505084</v>
       </c>
       <c r="W23" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X23" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y23" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I24" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J24" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K24" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L24" t="n">
-        <v>97.41996410676371</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="M24" t="n">
-        <v>963.3815547230743</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="N24" t="n">
-        <v>1860.632488341521</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="O24" t="n">
-        <v>2137.637783597812</v>
+        <v>1197.185907129206</v>
       </c>
       <c r="P24" t="n">
-        <v>2137.637783597812</v>
+        <v>1776.213932090868</v>
       </c>
       <c r="Q24" t="n">
         <v>2137.637783597812</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>772.3635463857082</v>
+        <v>1012.55948167565</v>
       </c>
       <c r="C25" t="n">
-        <v>601.2701739474247</v>
+        <v>1012.55948167565</v>
       </c>
       <c r="D25" t="n">
-        <v>441.7755292703347</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="E25" t="n">
-        <v>376.063656216586</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F25" t="n">
-        <v>211.4325303271773</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G25" t="n">
-        <v>211.4325303271773</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H25" t="n">
         <v>211.4325303271773</v>
       </c>
       <c r="I25" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J25" t="n">
         <v>116.8792779475706</v>
       </c>
       <c r="K25" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142629</v>
       </c>
       <c r="L25" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025712</v>
       </c>
       <c r="M25" t="n">
-        <v>852.6563092888648</v>
+        <v>852.6563092888647</v>
       </c>
       <c r="N25" t="n">
-        <v>1145.132879486175</v>
+        <v>1145.132879486174</v>
       </c>
       <c r="O25" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P25" t="n">
-        <v>1630.316262902152</v>
+        <v>1630.316262902151</v>
       </c>
       <c r="Q25" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R25" t="n">
-        <v>1702.21247802243</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S25" t="n">
-        <v>1702.21247802243</v>
+        <v>1435.389185958426</v>
       </c>
       <c r="T25" t="n">
-        <v>1702.21247802243</v>
+        <v>1295.353396699643</v>
       </c>
       <c r="U25" t="n">
-        <v>1702.21247802243</v>
+        <v>1012.55948167565</v>
       </c>
       <c r="V25" t="n">
-        <v>1702.21247802243</v>
+        <v>1012.55948167565</v>
       </c>
       <c r="W25" t="n">
-        <v>1423.142813531304</v>
+        <v>1012.55948167565</v>
       </c>
       <c r="X25" t="n">
-        <v>1184.798951390988</v>
+        <v>1012.55948167565</v>
       </c>
       <c r="Y25" t="n">
-        <v>960.0632527797526</v>
+        <v>1012.55948167565</v>
       </c>
     </row>
     <row r="26">
@@ -6223,13 +6223,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I26" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J26" t="n">
         <v>365.99504637325</v>
       </c>
       <c r="K26" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477951</v>
       </c>
       <c r="L26" t="n">
         <v>1665.067141547876</v>
@@ -6241,34 +6241,34 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O26" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P26" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270212</v>
       </c>
       <c r="Q26" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344923</v>
       </c>
       <c r="R26" t="n">
         <v>4870.998205338185</v>
       </c>
       <c r="S26" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.6589969684</v>
       </c>
       <c r="T26" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210381</v>
       </c>
       <c r="U26" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168603</v>
       </c>
       <c r="V26" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505084</v>
       </c>
       <c r="W26" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640252</v>
       </c>
       <c r="X26" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809205</v>
       </c>
       <c r="Y26" t="n">
         <v>2954.975327257119</v>
@@ -6302,25 +6302,25 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I27" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J27" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K27" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L27" t="n">
-        <v>97.41996410676371</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M27" t="n">
-        <v>963.3815547230743</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="N27" t="n">
-        <v>1860.632488341521</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="O27" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="P27" t="n">
         <v>2137.637783597812</v>
@@ -6360,49 +6360,49 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1183.652854113933</v>
+        <v>442.2064479917299</v>
       </c>
       <c r="C28" t="n">
-        <v>1012.55948167565</v>
+        <v>442.2064479917299</v>
       </c>
       <c r="D28" t="n">
-        <v>853.0648369985595</v>
+        <v>442.2064479917299</v>
       </c>
       <c r="E28" t="n">
-        <v>692.1540218668789</v>
+        <v>442.2064479917299</v>
       </c>
       <c r="F28" t="n">
-        <v>527.5228959774702</v>
+        <v>277.5753221023211</v>
       </c>
       <c r="G28" t="n">
-        <v>360.3500994508607</v>
+        <v>277.5753221023211</v>
       </c>
       <c r="H28" t="n">
-        <v>211.4325303271773</v>
+        <v>128.6577529786377</v>
       </c>
       <c r="I28" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J28" t="n">
         <v>116.8792779475706</v>
       </c>
       <c r="K28" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142629</v>
       </c>
       <c r="L28" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025712</v>
       </c>
       <c r="M28" t="n">
-        <v>852.6563092888648</v>
+        <v>852.6563092888647</v>
       </c>
       <c r="N28" t="n">
-        <v>1145.132879486175</v>
+        <v>1145.132879486174</v>
       </c>
       <c r="O28" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P28" t="n">
-        <v>1630.316262902152</v>
+        <v>1630.316262902151</v>
       </c>
       <c r="Q28" t="n">
         <v>1702.21247802243</v>
@@ -6411,25 +6411,25 @@
         <v>1702.21247802243</v>
       </c>
       <c r="S28" t="n">
-        <v>1702.21247802243</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T28" t="n">
-        <v>1702.21247802243</v>
+        <v>1277.955772567327</v>
       </c>
       <c r="U28" t="n">
-        <v>1702.21247802243</v>
+        <v>995.1618575433336</v>
       </c>
       <c r="V28" t="n">
-        <v>1702.21247802243</v>
+        <v>721.2761124828555</v>
       </c>
       <c r="W28" t="n">
-        <v>1702.21247802243</v>
+        <v>442.2064479917299</v>
       </c>
       <c r="X28" t="n">
-        <v>1463.868615882114</v>
+        <v>442.2064479917299</v>
       </c>
       <c r="Y28" t="n">
-        <v>1371.352560507977</v>
+        <v>442.2064479917299</v>
       </c>
     </row>
     <row r="29">
@@ -6460,13 +6460,13 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I29" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J29" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732499</v>
       </c>
       <c r="K29" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477951</v>
       </c>
       <c r="L29" t="n">
         <v>1665.067141547876</v>
@@ -6478,34 +6478,34 @@
         <v>3254.588416372258</v>
       </c>
       <c r="O29" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P29" t="n">
         <v>4480.322041270213</v>
       </c>
       <c r="Q29" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344923</v>
       </c>
       <c r="R29" t="n">
         <v>4870.998205338185</v>
       </c>
       <c r="S29" t="n">
-        <v>4747.199906710204</v>
+        <v>4739.6589969684</v>
       </c>
       <c r="T29" t="n">
-        <v>4747.199906710204</v>
+        <v>4518.209749210381</v>
       </c>
       <c r="U29" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168603</v>
       </c>
       <c r="V29" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505084</v>
       </c>
       <c r="W29" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640252</v>
       </c>
       <c r="X29" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809205</v>
       </c>
       <c r="Y29" t="n">
         <v>2954.975327257119</v>
@@ -6539,31 +6539,31 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I30" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J30" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K30" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L30" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M30" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N30" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O30" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P30" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q30" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R30" t="n">
         <v>2137.637783597812</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.9187963538177</v>
+        <v>531.4434718891442</v>
       </c>
       <c r="C31" t="n">
-        <v>417.8254239155342</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="D31" t="n">
-        <v>258.3307792384442</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="E31" t="n">
-        <v>97.41996410676371</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="F31" t="n">
-        <v>97.41996410676371</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="G31" t="n">
-        <v>97.41996410676371</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H31" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I31" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J31" t="n">
         <v>116.8792779475706</v>
       </c>
       <c r="K31" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142629</v>
       </c>
       <c r="L31" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025712</v>
       </c>
       <c r="M31" t="n">
-        <v>852.6563092888648</v>
+        <v>852.6563092888647</v>
       </c>
       <c r="N31" t="n">
-        <v>1145.132879486175</v>
+        <v>1145.132879486174</v>
       </c>
       <c r="O31" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P31" t="n">
-        <v>1630.316262902152</v>
+        <v>1630.316262902151</v>
       </c>
       <c r="Q31" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R31" t="n">
-        <v>1702.21247802243</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="S31" t="n">
-        <v>1517.172971249823</v>
+        <v>1435.389185958426</v>
       </c>
       <c r="T31" t="n">
-        <v>1517.172971249823</v>
+        <v>1435.389185958426</v>
       </c>
       <c r="U31" t="n">
-        <v>1517.172971249823</v>
+        <v>1435.389185958426</v>
       </c>
       <c r="V31" t="n">
-        <v>1517.172971249823</v>
+        <v>1222.94854138555</v>
       </c>
       <c r="W31" t="n">
-        <v>1239.698063499414</v>
+        <v>943.8788768944239</v>
       </c>
       <c r="X31" t="n">
-        <v>1001.354201359097</v>
+        <v>943.8788768944239</v>
       </c>
       <c r="Y31" t="n">
-        <v>776.6185027478621</v>
+        <v>719.1431782831886</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2315.763990092806</v>
+        <v>2315.763990092805</v>
       </c>
       <c r="C32" t="n">
-        <v>1905.639399406076</v>
+        <v>1905.639399406075</v>
       </c>
       <c r="D32" t="n">
-        <v>1730.16562699896</v>
+        <v>1501.175469499136</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.825411515857</v>
+        <v>1086.835254016033</v>
       </c>
       <c r="F32" t="n">
-        <v>894.7949994695443</v>
+        <v>665.8048419697202</v>
       </c>
       <c r="G32" t="n">
-        <v>486.2396990962708</v>
+        <v>406.5568918143014</v>
       </c>
       <c r="H32" t="n">
-        <v>177.1027713887331</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="I32" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J32" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732494</v>
       </c>
       <c r="K32" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477945</v>
       </c>
       <c r="L32" t="n">
-        <v>1665.067141547876</v>
+        <v>1665.067141547875</v>
       </c>
       <c r="M32" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.155711445508</v>
       </c>
       <c r="N32" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372257</v>
       </c>
       <c r="O32" t="n">
-        <v>3926.785084202961</v>
+        <v>3926.78508420296</v>
       </c>
       <c r="P32" t="n">
         <v>4480.322041270213</v>
       </c>
       <c r="Q32" t="n">
-        <v>4819.791607344924</v>
+        <v>4819.791607344923</v>
       </c>
       <c r="R32" t="n">
         <v>4870.998205338185</v>
       </c>
       <c r="S32" t="n">
-        <v>4739.658996968401</v>
+        <v>4739.6589969684</v>
       </c>
       <c r="T32" t="n">
-        <v>4518.209749210382</v>
+        <v>4518.209749210381</v>
       </c>
       <c r="U32" t="n">
-        <v>4261.163096168604</v>
+        <v>4261.163096168603</v>
       </c>
       <c r="V32" t="n">
-        <v>3911.325541505085</v>
+        <v>3911.325541505084</v>
       </c>
       <c r="W32" t="n">
-        <v>3527.565240640253</v>
+        <v>3527.565240640252</v>
       </c>
       <c r="X32" t="n">
-        <v>3126.921842809206</v>
+        <v>3126.921842809205</v>
       </c>
       <c r="Y32" t="n">
-        <v>2725.985169757296</v>
+        <v>2725.985169757295</v>
       </c>
     </row>
     <row r="33">
@@ -6776,25 +6776,25 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I33" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J33" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K33" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L33" t="n">
-        <v>97.41996410676371</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M33" t="n">
-        <v>963.3815547230743</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="N33" t="n">
-        <v>1860.632488341521</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="O33" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="P33" t="n">
         <v>2137.637783597812</v>
@@ -6834,49 +6834,49 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>135.6869640890983</v>
+        <v>268.5133365450472</v>
       </c>
       <c r="C34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="D34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="E34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="F34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="G34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="H34" t="n">
-        <v>135.6869640890983</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="I34" t="n">
-        <v>97.41996410676371</v>
+        <v>97.4199641067637</v>
       </c>
       <c r="J34" t="n">
         <v>116.8792779475706</v>
       </c>
       <c r="K34" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142629</v>
       </c>
       <c r="L34" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025712</v>
       </c>
       <c r="M34" t="n">
-        <v>852.6563092888648</v>
+        <v>852.6563092888647</v>
       </c>
       <c r="N34" t="n">
-        <v>1145.132879486175</v>
+        <v>1145.132879486174</v>
       </c>
       <c r="O34" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P34" t="n">
-        <v>1630.316262902152</v>
+        <v>1630.316262902151</v>
       </c>
       <c r="Q34" t="n">
         <v>1702.21247802243</v>
@@ -6885,25 +6885,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S34" t="n">
-        <v>1435.389185958427</v>
+        <v>1620.428692731033</v>
       </c>
       <c r="T34" t="n">
-        <v>1196.171987275931</v>
+        <v>1381.211494048537</v>
       </c>
       <c r="U34" t="n">
-        <v>913.3780722519373</v>
+        <v>1247.512314631012</v>
       </c>
       <c r="V34" t="n">
-        <v>639.4923271914593</v>
+        <v>973.6265695705338</v>
       </c>
       <c r="W34" t="n">
-        <v>360.4226627003336</v>
+        <v>694.5569050794081</v>
       </c>
       <c r="X34" t="n">
-        <v>360.4226627003336</v>
+        <v>456.2130429390916</v>
       </c>
       <c r="Y34" t="n">
-        <v>135.6869640890983</v>
+        <v>456.2130429390916</v>
       </c>
     </row>
     <row r="35">
@@ -6913,7 +6913,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2544.754147592629</v>
+        <v>2315.763990092806</v>
       </c>
       <c r="C35" t="n">
         <v>2134.629556905899</v>
@@ -6937,25 +6937,25 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J35" t="n">
-        <v>365.99504637325</v>
+        <v>365.9950463732503</v>
       </c>
       <c r="K35" t="n">
-        <v>925.7208439477952</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L35" t="n">
         <v>1665.067141547876</v>
       </c>
       <c r="M35" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O35" t="n">
         <v>3926.785084202961</v>
       </c>
       <c r="P35" t="n">
-        <v>4480.322041270213</v>
+        <v>4480.322041270214</v>
       </c>
       <c r="Q35" t="n">
         <v>4819.791607344924</v>
@@ -6976,13 +6976,13 @@
         <v>3911.325541505085</v>
       </c>
       <c r="W35" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X35" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y35" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="36">
@@ -7016,22 +7016,22 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J36" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K36" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L36" t="n">
-        <v>97.41996410676371</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M36" t="n">
-        <v>963.3815547230743</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="N36" t="n">
-        <v>1860.632488341521</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="O36" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="P36" t="n">
         <v>2137.637783597812</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1024.158209436843</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="C37" t="n">
-        <v>853.0648369985595</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="D37" t="n">
-        <v>853.0648369985595</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="E37" t="n">
-        <v>692.1540218668789</v>
+        <v>429.2238865227818</v>
       </c>
       <c r="F37" t="n">
-        <v>527.5228959774702</v>
+        <v>264.5927606333731</v>
       </c>
       <c r="G37" t="n">
-        <v>360.3500994508607</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H37" t="n">
-        <v>211.4325303271773</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I37" t="n">
         <v>97.41996410676371</v>
@@ -7098,49 +7098,49 @@
         <v>116.8792779475706</v>
       </c>
       <c r="K37" t="n">
-        <v>280.267281314263</v>
+        <v>280.2672813142629</v>
       </c>
       <c r="L37" t="n">
-        <v>551.4710044025713</v>
+        <v>551.4710044025712</v>
       </c>
       <c r="M37" t="n">
-        <v>852.6563092888648</v>
+        <v>852.6563092888647</v>
       </c>
       <c r="N37" t="n">
-        <v>1145.132879486175</v>
+        <v>1145.132879486174</v>
       </c>
       <c r="O37" t="n">
         <v>1415.442870479314</v>
       </c>
       <c r="P37" t="n">
-        <v>1630.316262902152</v>
+        <v>1630.316262902151</v>
       </c>
       <c r="Q37" t="n">
         <v>1702.21247802243</v>
       </c>
       <c r="R37" t="n">
-        <v>1620.428692731033</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S37" t="n">
-        <v>1435.389185958427</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T37" t="n">
-        <v>1196.171987275931</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="U37" t="n">
-        <v>1024.158209436843</v>
+        <v>1632.958563219982</v>
       </c>
       <c r="V37" t="n">
-        <v>1024.158209436843</v>
+        <v>1359.072818159504</v>
       </c>
       <c r="W37" t="n">
-        <v>1024.158209436843</v>
+        <v>1080.003153668378</v>
       </c>
       <c r="X37" t="n">
-        <v>1024.158209436843</v>
+        <v>841.6592915280615</v>
       </c>
       <c r="Y37" t="n">
-        <v>1024.158209436843</v>
+        <v>616.9235929168262</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>177.1027713887331</v>
       </c>
       <c r="I38" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J38" t="n">
         <v>365.9950463732503</v>
       </c>
       <c r="K38" t="n">
-        <v>925.7208439477954</v>
+        <v>925.7208439477959</v>
       </c>
       <c r="L38" t="n">
         <v>1665.067141547876</v>
       </c>
       <c r="M38" t="n">
-        <v>2471.155711445509</v>
+        <v>2471.15571144551</v>
       </c>
       <c r="N38" t="n">
-        <v>3254.588416372258</v>
+        <v>3254.588416372259</v>
       </c>
       <c r="O38" t="n">
         <v>3926.785084202961</v>
@@ -7195,31 +7195,31 @@
         <v>4480.322041270214</v>
       </c>
       <c r="Q38" t="n">
-        <v>4819.791607344925</v>
+        <v>4819.791607344924</v>
       </c>
       <c r="R38" t="n">
-        <v>4870.998205338186</v>
+        <v>4870.998205338185</v>
       </c>
       <c r="S38" t="n">
-        <v>4739.658996968402</v>
+        <v>4739.658996968401</v>
       </c>
       <c r="T38" t="n">
-        <v>4518.209749210383</v>
+        <v>4518.209749210382</v>
       </c>
       <c r="U38" t="n">
-        <v>4490.153253668426</v>
+        <v>4261.163096168604</v>
       </c>
       <c r="V38" t="n">
-        <v>4140.315699004907</v>
+        <v>3911.325541505085</v>
       </c>
       <c r="W38" t="n">
-        <v>3756.555398140076</v>
+        <v>3527.565240640253</v>
       </c>
       <c r="X38" t="n">
-        <v>3355.912000309029</v>
+        <v>3126.921842809206</v>
       </c>
       <c r="Y38" t="n">
-        <v>2954.975327257119</v>
+        <v>2725.985169757296</v>
       </c>
     </row>
     <row r="39">
@@ -7250,25 +7250,25 @@
         <v>114.9819217612538</v>
       </c>
       <c r="I39" t="n">
-        <v>97.41996410676373</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J39" t="n">
-        <v>97.41996410676373</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K39" t="n">
-        <v>97.41996410676373</v>
+        <v>769.2575309382117</v>
       </c>
       <c r="L39" t="n">
-        <v>97.41996410676373</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M39" t="n">
-        <v>963.3815547230743</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="N39" t="n">
-        <v>1860.632488341521</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="O39" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.60975863615</v>
       </c>
       <c r="P39" t="n">
         <v>2137.637783597812</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>4089.508446085592</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="C40" t="n">
-        <v>3918.415073647309</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="D40" t="n">
-        <v>3758.920428970219</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="E40" t="n">
-        <v>3598.009613838538</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="F40" t="n">
-        <v>3433.37848794913</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="G40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="H40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="I40" t="n">
-        <v>3266.20569142252</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J40" t="n">
-        <v>3285.665005263327</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K40" t="n">
-        <v>3449.053008630019</v>
+        <v>280.2672813142629</v>
       </c>
       <c r="L40" t="n">
-        <v>3720.256731718328</v>
+        <v>551.4710044025712</v>
       </c>
       <c r="M40" t="n">
-        <v>4021.442036604621</v>
+        <v>852.6563092888647</v>
       </c>
       <c r="N40" t="n">
-        <v>4313.918606801931</v>
+        <v>1145.132879486174</v>
       </c>
       <c r="O40" t="n">
-        <v>4584.22859779507</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P40" t="n">
-        <v>4799.101990217908</v>
+        <v>1630.316262902151</v>
       </c>
       <c r="Q40" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R40" t="n">
-        <v>4870.998205338186</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S40" t="n">
-        <v>4740.287713231189</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="T40" t="n">
-        <v>4740.287713231189</v>
+        <v>1462.995279339934</v>
       </c>
       <c r="U40" t="n">
-        <v>4740.287713231189</v>
+        <v>1301.154640803964</v>
       </c>
       <c r="V40" t="n">
-        <v>4740.287713231189</v>
+        <v>1027.268895743486</v>
       </c>
       <c r="W40" t="n">
-        <v>4740.287713231189</v>
+        <v>748.1992312523601</v>
       </c>
       <c r="X40" t="n">
-        <v>4501.943851090872</v>
+        <v>509.8553691120434</v>
       </c>
       <c r="Y40" t="n">
-        <v>4277.208152479637</v>
+        <v>285.1196705008081</v>
       </c>
     </row>
     <row r="41">
@@ -7390,16 +7390,16 @@
         <v>2315.763990092806</v>
       </c>
       <c r="C41" t="n">
-        <v>1905.639399406076</v>
+        <v>2134.629556905899</v>
       </c>
       <c r="D41" t="n">
-        <v>1501.175469499137</v>
+        <v>1730.16562699896</v>
       </c>
       <c r="E41" t="n">
-        <v>1086.835254016034</v>
+        <v>1315.825411515857</v>
       </c>
       <c r="F41" t="n">
-        <v>665.8048419697211</v>
+        <v>894.7949994695443</v>
       </c>
       <c r="G41" t="n">
         <v>486.2396990962708</v>
@@ -7414,7 +7414,7 @@
         <v>365.9950463732501</v>
       </c>
       <c r="K41" t="n">
-        <v>925.7208439477945</v>
+        <v>925.7208439477952</v>
       </c>
       <c r="L41" t="n">
         <v>1665.067141547875</v>
@@ -7490,22 +7490,22 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J42" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K42" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L42" t="n">
-        <v>97.41996410676371</v>
+        <v>1450.041880175761</v>
       </c>
       <c r="M42" t="n">
-        <v>963.3815547230743</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="N42" t="n">
-        <v>1860.632488341521</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="O42" t="n">
-        <v>2137.637783597812</v>
+        <v>1558.609758636149</v>
       </c>
       <c r="P42" t="n">
         <v>2137.637783597812</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>4352.438581429687</v>
+        <v>1024.158209436843</v>
       </c>
       <c r="C43" t="n">
-        <v>4181.345208991404</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="D43" t="n">
-        <v>4021.850564314315</v>
+        <v>853.0648369985595</v>
       </c>
       <c r="E43" t="n">
-        <v>3860.939749182634</v>
+        <v>692.1540218668789</v>
       </c>
       <c r="F43" t="n">
-        <v>3696.308623293226</v>
+        <v>527.5228959774702</v>
       </c>
       <c r="G43" t="n">
-        <v>3529.135826766616</v>
+        <v>360.3500994508607</v>
       </c>
       <c r="H43" t="n">
-        <v>3380.218257642933</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I43" t="n">
-        <v>3266.205691422519</v>
+        <v>97.41996410676371</v>
       </c>
       <c r="J43" t="n">
-        <v>3285.665005263326</v>
+        <v>116.8792779475706</v>
       </c>
       <c r="K43" t="n">
-        <v>3449.053008630018</v>
+        <v>280.267281314263</v>
       </c>
       <c r="L43" t="n">
-        <v>3720.256731718327</v>
+        <v>551.4710044025713</v>
       </c>
       <c r="M43" t="n">
-        <v>4021.44203660462</v>
+        <v>852.6563092888648</v>
       </c>
       <c r="N43" t="n">
-        <v>4313.91860680193</v>
+        <v>1145.132879486175</v>
       </c>
       <c r="O43" t="n">
-        <v>4584.228597795069</v>
+        <v>1415.442870479314</v>
       </c>
       <c r="P43" t="n">
-        <v>4799.101990217907</v>
+        <v>1630.316262902152</v>
       </c>
       <c r="Q43" t="n">
-        <v>4870.998205338185</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="R43" t="n">
-        <v>4789.214420046788</v>
+        <v>1702.21247802243</v>
       </c>
       <c r="S43" t="n">
-        <v>4789.214420046788</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="T43" t="n">
-        <v>4789.214420046788</v>
+        <v>1517.172971249823</v>
       </c>
       <c r="U43" t="n">
-        <v>4789.214420046788</v>
+        <v>1234.37905622583</v>
       </c>
       <c r="V43" t="n">
-        <v>4764.873986434967</v>
+        <v>1234.37905622583</v>
       </c>
       <c r="W43" t="n">
-        <v>4764.873986434967</v>
+        <v>1211.857915830887</v>
       </c>
       <c r="X43" t="n">
-        <v>4764.873986434967</v>
+        <v>1211.857915830887</v>
       </c>
       <c r="Y43" t="n">
-        <v>4540.138287823732</v>
+        <v>1211.857915830887</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2315.763990092806</v>
+        <v>2544.754147592629</v>
       </c>
       <c r="C44" t="n">
         <v>2134.629556905899</v>
@@ -7684,16 +7684,16 @@
         <v>4261.163096168604</v>
       </c>
       <c r="V44" t="n">
-        <v>3911.325541505085</v>
+        <v>4140.315699004907</v>
       </c>
       <c r="W44" t="n">
-        <v>3527.565240640253</v>
+        <v>3756.555398140076</v>
       </c>
       <c r="X44" t="n">
-        <v>3126.921842809206</v>
+        <v>3355.912000309029</v>
       </c>
       <c r="Y44" t="n">
-        <v>2725.985169757296</v>
+        <v>2954.975327257119</v>
       </c>
     </row>
     <row r="45">
@@ -7727,28 +7727,28 @@
         <v>97.41996410676371</v>
       </c>
       <c r="J45" t="n">
-        <v>97.41996410676371</v>
+        <v>298.803175282419</v>
       </c>
       <c r="K45" t="n">
-        <v>97.41996410676371</v>
+        <v>769.2575309382119</v>
       </c>
       <c r="L45" t="n">
-        <v>97.41996410676371</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="M45" t="n">
-        <v>514.8469186904415</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="N45" t="n">
-        <v>1412.097852308888</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="O45" t="n">
-        <v>2137.637783597812</v>
+        <v>1161.994247859146</v>
       </c>
       <c r="P45" t="n">
-        <v>2137.637783597812</v>
+        <v>1741.022272820809</v>
       </c>
       <c r="Q45" t="n">
-        <v>2137.637783597812</v>
+        <v>2102.446124327753</v>
       </c>
       <c r="R45" t="n">
         <v>2137.637783597812</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>500.9426672466576</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="C46" t="n">
-        <v>500.9426672466576</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="D46" t="n">
-        <v>500.9426672466576</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="E46" t="n">
-        <v>500.9426672466576</v>
+        <v>543.2364527431954</v>
       </c>
       <c r="F46" t="n">
-        <v>336.3115413572489</v>
+        <v>378.6053268537867</v>
       </c>
       <c r="G46" t="n">
-        <v>169.1387448306395</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="H46" t="n">
-        <v>97.41996410676371</v>
+        <v>211.4325303271773</v>
       </c>
       <c r="I46" t="n">
         <v>97.41996410676371</v>
@@ -7833,25 +7833,25 @@
         <v>1620.428692731033</v>
       </c>
       <c r="S46" t="n">
-        <v>1435.389185958427</v>
+        <v>1526.833017904207</v>
       </c>
       <c r="T46" t="n">
-        <v>1196.171987275931</v>
+        <v>1287.615819221711</v>
       </c>
       <c r="U46" t="n">
-        <v>913.3780722519373</v>
+        <v>1004.821904197718</v>
       </c>
       <c r="V46" t="n">
-        <v>913.3780722519373</v>
+        <v>730.9361591372398</v>
       </c>
       <c r="W46" t="n">
-        <v>913.3780722519373</v>
+        <v>730.9361591372398</v>
       </c>
       <c r="X46" t="n">
-        <v>913.3780722519373</v>
+        <v>730.9361591372398</v>
       </c>
       <c r="Y46" t="n">
-        <v>688.642373640702</v>
+        <v>730.9361591372398</v>
       </c>
     </row>
   </sheetData>
@@ -7978,31 +7978,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K2" t="n">
-        <v>590.1064824525349</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L2" t="n">
-        <v>617.5489684328704</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M2" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N2" t="n">
-        <v>614.9758611266449</v>
+        <v>92.91229075661933</v>
       </c>
       <c r="O2" t="n">
-        <v>615.2533459958087</v>
+        <v>494.099071146226</v>
       </c>
       <c r="P2" t="n">
-        <v>93.64936328088416</v>
+        <v>615.7129336509097</v>
       </c>
       <c r="Q2" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R2" t="n">
-        <v>87.31214281472352</v>
+        <v>128.2784515920617</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,28 +8057,28 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J3" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K3" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L3" t="n">
-        <v>527.2265162238737</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M3" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N3" t="n">
-        <v>575.2569637637755</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O3" t="n">
-        <v>579.8150493700256</v>
+        <v>564.4415429491206</v>
       </c>
       <c r="P3" t="n">
         <v>576.3232053728293</v>
       </c>
       <c r="Q3" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R3" t="n">
         <v>88.85829947169823</v>
@@ -8215,22 +8215,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K5" t="n">
-        <v>89.13638967321712</v>
+        <v>611.1999600432426</v>
       </c>
       <c r="L5" t="n">
-        <v>231.0841246958424</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M5" t="n">
         <v>93.29022445704545</v>
       </c>
       <c r="N5" t="n">
-        <v>614.9758611266449</v>
+        <v>493.8215862770622</v>
       </c>
       <c r="O5" t="n">
-        <v>615.2533459958087</v>
+        <v>93.18977562578313</v>
       </c>
       <c r="P5" t="n">
         <v>615.7129336509097</v>
@@ -8300,25 +8300,25 @@
         <v>516.2361426485535</v>
       </c>
       <c r="L6" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M6" t="n">
         <v>57.56428373841742</v>
       </c>
       <c r="N6" t="n">
-        <v>53.19339339374999</v>
+        <v>559.8834573428703</v>
       </c>
       <c r="O6" t="n">
-        <v>579.8150493700256</v>
+        <v>57.751479</v>
       </c>
       <c r="P6" t="n">
-        <v>68.74422894819149</v>
+        <v>576.3232053728293</v>
       </c>
       <c r="Q6" t="n">
         <v>410.0708656603775</v>
       </c>
       <c r="R6" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8452,31 +8452,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>73.32359133330795</v>
+        <v>330.076592815888</v>
       </c>
       <c r="K8" t="n">
-        <v>611.1999600432426</v>
+        <v>89.13638967321712</v>
       </c>
       <c r="L8" t="n">
-        <v>555.4891820648243</v>
+        <v>95.48539806284482</v>
       </c>
       <c r="M8" t="n">
-        <v>93.29022445704545</v>
+        <v>615.3537948270711</v>
       </c>
       <c r="N8" t="n">
         <v>92.91229075661933</v>
       </c>
       <c r="O8" t="n">
-        <v>615.2533459958087</v>
+        <v>535.0653799235644</v>
       </c>
       <c r="P8" t="n">
         <v>615.7129336509097</v>
       </c>
       <c r="Q8" t="n">
-        <v>90.03380439915205</v>
+        <v>414.4388617681339</v>
       </c>
       <c r="R8" t="n">
-        <v>128.2784515920617</v>
+        <v>87.31214281472352</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8531,31 +8531,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J9" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K9" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L9" t="n">
-        <v>578.1780941808746</v>
+        <v>56.11452381084905</v>
       </c>
       <c r="M9" t="n">
-        <v>579.627854108443</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N9" t="n">
-        <v>554.1634861730672</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O9" t="n">
         <v>579.8150493700256</v>
       </c>
       <c r="P9" t="n">
-        <v>54.25963500280375</v>
+        <v>560.949698951924</v>
       </c>
       <c r="Q9" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R9" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8768,31 +8768,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J12" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K12" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L12" t="n">
-        <v>56.11452381084905</v>
+        <v>159.7989476750044</v>
       </c>
       <c r="M12" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N12" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O12" t="n">
         <v>768.8192472281761</v>
       </c>
       <c r="P12" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q12" t="n">
         <v>56.69261850483872</v>
       </c>
       <c r="R12" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9008,28 +9008,28 @@
         <v>51.36923880000001</v>
       </c>
       <c r="K15" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L15" t="n">
-        <v>56.11452381084905</v>
+        <v>712.2489309321196</v>
       </c>
       <c r="M15" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N15" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O15" t="n">
-        <v>768.8192472281761</v>
+        <v>57.751479</v>
       </c>
       <c r="P15" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q15" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R15" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9242,31 +9242,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J18" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K18" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L18" t="n">
         <v>56.11452381084905</v>
       </c>
       <c r="M18" t="n">
-        <v>531.1743980747688</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N18" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O18" t="n">
-        <v>768.8192472281761</v>
+        <v>519.1254239367926</v>
       </c>
       <c r="P18" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q18" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R18" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9479,31 +9479,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J21" t="n">
-        <v>51.36923880000001</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K21" t="n">
-        <v>55.82578278461539</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L21" t="n">
-        <v>56.11452381084905</v>
+        <v>517.4884687476416</v>
       </c>
       <c r="M21" t="n">
-        <v>909.0562844399999</v>
+        <v>57.56428373841742</v>
       </c>
       <c r="N21" t="n">
-        <v>935.6763147186165</v>
+        <v>53.19339339374999</v>
       </c>
       <c r="O21" t="n">
-        <v>390.9373608629449</v>
+        <v>57.751479</v>
       </c>
       <c r="P21" t="n">
-        <v>54.25963500280375</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q21" t="n">
-        <v>56.69261850483872</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R21" t="n">
-        <v>59.00019910540541</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9716,31 +9716,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J24" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K24" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L24" t="n">
-        <v>36.21939520654517</v>
+        <v>468.4702802479532</v>
       </c>
       <c r="M24" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978738</v>
       </c>
       <c r="N24" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654948</v>
       </c>
       <c r="O24" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461633</v>
       </c>
       <c r="P24" t="n">
-        <v>36.76253149458878</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q24" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R24" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588062</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9892,7 +9892,7 @@
         <v>743.321953824879</v>
       </c>
       <c r="P26" t="n">
-        <v>628.1510783507341</v>
+        <v>628.1510783507333</v>
       </c>
       <c r="Q26" t="n">
         <v>414.4388617681339</v>
@@ -9953,31 +9953,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J27" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K27" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L27" t="n">
-        <v>36.21939520654517</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M27" t="n">
-        <v>909.0562844399999</v>
+        <v>144.0121307471498</v>
       </c>
       <c r="N27" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654948</v>
       </c>
       <c r="O27" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461633</v>
       </c>
       <c r="P27" t="n">
-        <v>36.76253149458878</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q27" t="n">
-        <v>44.99626817861591</v>
+        <v>44.99626817861596</v>
       </c>
       <c r="R27" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588062</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10190,31 +10190,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J30" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K30" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L30" t="n">
-        <v>36.21939520654517</v>
+        <v>432.9231496721355</v>
       </c>
       <c r="M30" t="n">
-        <v>455.9909955181487</v>
+        <v>34.34760704978738</v>
       </c>
       <c r="N30" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654948</v>
       </c>
       <c r="O30" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461633</v>
       </c>
       <c r="P30" t="n">
-        <v>36.76253149458878</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q30" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R30" t="n">
-        <v>53.3111688958806</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10427,31 +10427,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J33" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K33" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L33" t="n">
-        <v>36.21939520654517</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M33" t="n">
-        <v>909.0562844399999</v>
+        <v>34.34760704978738</v>
       </c>
       <c r="N33" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654948</v>
       </c>
       <c r="O33" t="n">
-        <v>315.753958306325</v>
+        <v>145.6151534619787</v>
       </c>
       <c r="P33" t="n">
-        <v>36.76253149458878</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q33" t="n">
-        <v>44.99626817861591</v>
+        <v>44.99626817861596</v>
       </c>
       <c r="R33" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588062</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10664,31 +10664,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J36" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K36" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L36" t="n">
-        <v>36.21939520654517</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M36" t="n">
-        <v>909.0562844399999</v>
+        <v>144.0121307471498</v>
       </c>
       <c r="N36" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654948</v>
       </c>
       <c r="O36" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461633</v>
       </c>
       <c r="P36" t="n">
-        <v>36.76253149458878</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q36" t="n">
-        <v>44.99626817861591</v>
+        <v>44.99626817861596</v>
       </c>
       <c r="R36" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588062</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10901,31 +10901,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J39" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K39" t="n">
-        <v>41.02972279421734</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L39" t="n">
-        <v>36.21939520654517</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M39" t="n">
-        <v>909.0562844399999</v>
+        <v>144.0121307471498</v>
       </c>
       <c r="N39" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654948</v>
       </c>
       <c r="O39" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461633</v>
       </c>
       <c r="P39" t="n">
-        <v>36.76253149458878</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q39" t="n">
-        <v>44.99626817861591</v>
+        <v>44.99626817861596</v>
       </c>
       <c r="R39" t="n">
-        <v>53.3111688958806</v>
+        <v>53.31116889588062</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11062,10 +11062,10 @@
         <v>330.076592815888</v>
       </c>
       <c r="K41" t="n">
-        <v>632.7318453389129</v>
+        <v>632.7318453389136</v>
       </c>
       <c r="L41" t="n">
-        <v>815.2746908024792</v>
+        <v>815.2746908024784</v>
       </c>
       <c r="M41" t="n">
         <v>877.4504173780091</v>
@@ -11138,25 +11138,25 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J42" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K42" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L42" t="n">
-        <v>36.21939520654516</v>
+        <v>723.8803540323523</v>
       </c>
       <c r="M42" t="n">
-        <v>909.0562844399999</v>
+        <v>144.0121307471492</v>
       </c>
       <c r="N42" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O42" t="n">
-        <v>315.753958306325</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P42" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q42" t="n">
         <v>44.99626817861591</v>
@@ -11375,31 +11375,31 @@
         <v>19.76545843403778</v>
       </c>
       <c r="J45" t="n">
-        <v>42.71231595856359</v>
+        <v>246.129700984478</v>
       </c>
       <c r="K45" t="n">
-        <v>41.02972279421733</v>
+        <v>516.2361426485535</v>
       </c>
       <c r="L45" t="n">
-        <v>36.21939520654516</v>
+        <v>432.9231496721353</v>
       </c>
       <c r="M45" t="n">
-        <v>455.9909955181487</v>
+        <v>34.34760704978728</v>
       </c>
       <c r="N45" t="n">
-        <v>935.6763147186165</v>
+        <v>29.36224035654939</v>
       </c>
       <c r="O45" t="n">
-        <v>768.8192472281761</v>
+        <v>35.95062976461624</v>
       </c>
       <c r="P45" t="n">
-        <v>36.76253149458877</v>
+        <v>621.6393243851574</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.99626817861591</v>
+        <v>410.0708656603775</v>
       </c>
       <c r="R45" t="n">
-        <v>53.31116889588059</v>
+        <v>88.85829947169823</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>356.9958808389721</v>
+        <v>356.995880838973</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23418,25 +23418,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.577887163712</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I13" t="n">
-        <v>71.7315562480068</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,28 +23463,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S13" t="n">
         <v>184.5278504388888</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>194.7158398879884</v>
       </c>
       <c r="U13" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>400.41929060787</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23545,13 +23545,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>133.9282644538401</v>
+        <v>42.06483528720045</v>
       </c>
       <c r="T14" t="n">
-        <v>54.06597461814459</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23655,19 +23655,19 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C16" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E16" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>162.9848146305146</v>
       </c>
       <c r="G16" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>148.1113806425979</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>184.5278504388888</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,16 +23712,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>226.8761955696463</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X16" t="n">
-        <v>55.35263051300456</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23737,7 +23737,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>187.9942390719856</v>
+        <v>37.84312462897446</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23746,7 +23746,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>404.6410012660961</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23788,7 +23788,7 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>110.8572724611564</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>41.9919201008823</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S19" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>237.1532516330649</v>
@@ -23952,13 +23952,13 @@
         <v>271.1468876098733</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X19" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y19" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>406.1189678678446</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,13 +23980,13 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>416.8201079258493</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>36.36515802722585</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>25.66401796922122</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>185.8227093301039</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D22" t="n">
         <v>157.8996982303191</v>
@@ -24138,16 +24138,16 @@
         <v>159.3017069803637</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>115.1825854367171</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,25 +24177,25 @@
         <v>84.41999114135434</v>
       </c>
       <c r="S22" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>279.9701659793371</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>267.6737295408669</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>123.0384446415718</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y22" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24220,7 +24220,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -24268,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>226.7002559248255</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,25 +24363,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>94.24695265715243</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5010685613433</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>236.8250266956711</v>
+        <v>98.18959532947565</v>
       </c>
       <c r="U25" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>271.1468876098733</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="26">
@@ -24499,7 +24499,7 @@
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>226.7002559248242</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24511,7 +24511,7 @@
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>226.7002559248256</v>
       </c>
     </row>
     <row r="27">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>185.8227093301039</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.94702957505417</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,28 +24648,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848281</v>
       </c>
       <c r="S28" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y28" t="n">
-        <v>130.8974468047281</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="29">
@@ -24730,10 +24730,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>7.465500644385017</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>219.234755280439</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -24748,7 +24748,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>226.7002559248256</v>
       </c>
     </row>
     <row r="30">
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F31" t="n">
         <v>162.9848146305146</v>
@@ -24855,10 +24855,10 @@
         <v>165.5010685613433</v>
       </c>
       <c r="H31" t="n">
-        <v>147.4283934324466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>80.9659474384828</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24897,13 +24897,13 @@
         <v>279.9659758737533</v>
       </c>
       <c r="V31" t="n">
-        <v>271.1468876098733</v>
+        <v>60.83064948272539</v>
       </c>
       <c r="W31" t="n">
-        <v>1.578809173309139</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>226.7002559248249</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>147.8142767156762</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>78.88597920914972</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>169.3824387139007</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>157.8996982303191</v>
@@ -25095,7 +25095,7 @@
         <v>147.4283934324466</v>
       </c>
       <c r="I34" t="n">
-        <v>74.98811057569817</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25125,13 +25125,13 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>147.6037882504035</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25140,10 +25140,10 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="35">
@@ -25156,7 +25156,7 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>226.7002559248248</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>226.7002559248246</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>185.8227093301039</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D37" t="n">
         <v>157.8996982303191</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>112.8724405582094</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>80.96594743848281</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>236.8250266956711</v>
       </c>
       <c r="U37" t="n">
-        <v>109.6723358130566</v>
+        <v>211.4046002193301</v>
       </c>
       <c r="V37" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>235.9604235189134</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>222.4883416251229</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>226.7002559248245</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25447,7 +25447,7 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>226.7002559248234</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -25551,19 +25551,19 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>169.3824387139007</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>159.3017069803637</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>162.9848146305146</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5010685613433</v>
       </c>
       <c r="H40" t="n">
         <v>147.4283934324466</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>80.9659474384828</v>
+        <v>80.96594743848281</v>
       </c>
       <c r="S40" t="n">
-        <v>53.78572451895292</v>
+        <v>183.1891117048806</v>
       </c>
       <c r="T40" t="n">
-        <v>236.8250266956711</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>279.9659758737533</v>
+        <v>119.7437437231432</v>
       </c>
       <c r="V40" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>276.2789678462144</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>226.7002559248248</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -25642,7 +25642,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>226.7002559248251</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>157.8996982303191</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25833,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>80.9659474384828</v>
       </c>
       <c r="S43" t="n">
-        <v>183.1891117048806</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>236.8250266956711</v>
       </c>
       <c r="U43" t="n">
-        <v>279.9659758737533</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>247.0498583341704</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W43" t="n">
-        <v>276.2789678462144</v>
+        <v>253.9830388552211</v>
       </c>
       <c r="X43" t="n">
         <v>235.9604235189134</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="44">
@@ -25867,7 +25867,7 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>226.7002559248248</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>226.7002559248243</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>76.42680051580957</v>
+        <v>147.4283934324466</v>
       </c>
       <c r="I46" t="n">
-        <v>112.8724405582094</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>90.52939362632276</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>271.1468876098733</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>276.2789678462144</v>
@@ -26091,7 +26091,7 @@
         <v>235.9604235189134</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
   </sheetData>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>682143.2432884581</v>
+        <v>682143.243288458</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>682143.2432884582</v>
+        <v>682143.2432884581</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700811.0730124186</v>
+        <v>700811.0730124183</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700811.0730124187</v>
+        <v>700811.0730124186</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700811.0730124187</v>
+        <v>700811.0730124186</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700811.0730124186</v>
+        <v>700811.0730124187</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700811.0730124185</v>
+        <v>700811.0730124187</v>
       </c>
     </row>
     <row r="16">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>472358.9397941251</v>
+      </c>
+      <c r="C2" t="n">
         <v>472358.9397941253</v>
       </c>
-      <c r="C2" t="n">
-        <v>472358.9397941252</v>
-      </c>
       <c r="D2" t="n">
-        <v>472358.9397941252</v>
+        <v>472358.9397941253</v>
       </c>
       <c r="E2" t="n">
         <v>419990.5679258858</v>
       </c>
       <c r="F2" t="n">
+        <v>419990.567925886</v>
+      </c>
+      <c r="G2" t="n">
         <v>419990.5679258859</v>
       </c>
-      <c r="G2" t="n">
-        <v>419990.567925886</v>
-      </c>
       <c r="H2" t="n">
-        <v>419990.5679258858</v>
+        <v>419990.5679258857</v>
       </c>
       <c r="I2" t="n">
+        <v>433884.7810915627</v>
+      </c>
+      <c r="J2" t="n">
+        <v>433884.7810915627</v>
+      </c>
+      <c r="K2" t="n">
+        <v>433884.7810915628</v>
+      </c>
+      <c r="L2" t="n">
+        <v>433884.7810915626</v>
+      </c>
+      <c r="M2" t="n">
+        <v>433884.7810915626</v>
+      </c>
+      <c r="N2" t="n">
+        <v>433884.7810915626</v>
+      </c>
+      <c r="O2" t="n">
         <v>433884.7810915625</v>
       </c>
-      <c r="J2" t="n">
-        <v>433884.7810915628</v>
-      </c>
-      <c r="K2" t="n">
-        <v>433884.7810915627</v>
-      </c>
-      <c r="L2" t="n">
-        <v>433884.7810915625</v>
-      </c>
-      <c r="M2" t="n">
-        <v>433884.7810915628</v>
-      </c>
-      <c r="N2" t="n">
-        <v>433884.7810915627</v>
-      </c>
-      <c r="O2" t="n">
-        <v>433884.7810915626</v>
-      </c>
       <c r="P2" t="n">
-        <v>433884.7810915626</v>
+        <v>433884.7810915623</v>
       </c>
     </row>
     <row r="3">
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>45948.6226158847</v>
+        <v>45948.62261588467</v>
       </c>
       <c r="J3" t="n">
         <v>136594.8008058949</v>
@@ -26438,13 +26438,13 @@
         <v>89101.60277166063</v>
       </c>
       <c r="I4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="J4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="K4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
       <c r="L4" t="n">
         <v>88152.90891079399</v>
@@ -26459,7 +26459,7 @@
         <v>88152.90891079398</v>
       </c>
       <c r="P4" t="n">
-        <v>88152.90891079399</v>
+        <v>88152.90891079398</v>
       </c>
     </row>
     <row r="5">
@@ -26478,7 +26478,7 @@
         <v>65369.06507849755</v>
       </c>
       <c r="E5" t="n">
-        <v>70865.21024487333</v>
+        <v>70865.21024487332</v>
       </c>
       <c r="F5" t="n">
         <v>70865.21024487332</v>
@@ -26490,22 +26490,22 @@
         <v>70865.21024487332</v>
       </c>
       <c r="I5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868561</v>
       </c>
       <c r="J5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868561</v>
       </c>
       <c r="K5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868561</v>
       </c>
       <c r="L5" t="n">
-        <v>74967.83978868563</v>
+        <v>74967.83978868561</v>
       </c>
       <c r="M5" t="n">
         <v>74967.83978868563</v>
       </c>
       <c r="N5" t="n">
-        <v>74967.83978868564</v>
+        <v>74967.83978868563</v>
       </c>
       <c r="O5" t="n">
         <v>74967.83978868563</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>18974.81854292269</v>
+        <v>18974.81854292246</v>
       </c>
       <c r="C6" t="n">
-        <v>193930.3284360366</v>
+        <v>193930.3284360367</v>
       </c>
       <c r="D6" t="n">
         <v>193930.3284360366</v>
       </c>
       <c r="E6" t="n">
-        <v>67893.99200990857</v>
+        <v>67713.41141725954</v>
       </c>
       <c r="F6" t="n">
-        <v>260023.7549093519</v>
+        <v>259843.174316703</v>
       </c>
       <c r="G6" t="n">
-        <v>260023.7549093521</v>
+        <v>259843.1743167028</v>
       </c>
       <c r="H6" t="n">
-        <v>260023.7549093519</v>
+        <v>259843.1743167027</v>
       </c>
       <c r="I6" t="n">
-        <v>224815.4097761982</v>
+        <v>224682.740263431</v>
       </c>
       <c r="J6" t="n">
-        <v>134169.2315861882</v>
+        <v>134036.5620734207</v>
       </c>
       <c r="K6" t="n">
-        <v>270764.0323920831</v>
+        <v>270631.3628793157</v>
       </c>
       <c r="L6" t="n">
-        <v>270764.0323920829</v>
+        <v>270631.3628793155</v>
       </c>
       <c r="M6" t="n">
-        <v>110405.5818914004</v>
+        <v>110272.9123786328</v>
       </c>
       <c r="N6" t="n">
-        <v>270764.0323920831</v>
+        <v>270631.3628793156</v>
       </c>
       <c r="O6" t="n">
-        <v>270764.032392083</v>
+        <v>270631.3628793154</v>
       </c>
       <c r="P6" t="n">
-        <v>270764.032392083</v>
+        <v>270631.3628793152</v>
       </c>
     </row>
   </sheetData>
@@ -26758,22 +26758,22 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812868</v>
+        <v>42.59940676812853</v>
       </c>
       <c r="J3" t="n">
-        <v>42.59940676812868</v>
+        <v>42.59940676812853</v>
       </c>
       <c r="K3" t="n">
-        <v>42.59940676812868</v>
+        <v>42.59940676812853</v>
       </c>
       <c r="L3" t="n">
-        <v>42.59940676812868</v>
+        <v>42.59940676812853</v>
       </c>
       <c r="M3" t="n">
-        <v>42.59940676812868</v>
+        <v>42.59940676812853</v>
       </c>
       <c r="N3" t="n">
-        <v>42.59940676812868</v>
+        <v>42.59940676812853</v>
       </c>
       <c r="O3" t="n">
         <v>42.59940676812871</v>
@@ -26825,7 +26825,7 @@
         <v>1217.749551334546</v>
       </c>
       <c r="N4" t="n">
-        <v>1217.749551334547</v>
+        <v>1217.749551334546</v>
       </c>
       <c r="O4" t="n">
         <v>1217.749551334546</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>42.59940676812868</v>
+        <v>42.59940676812872</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,7 +27032,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>52.20333020176145</v>
+        <v>52.20333020176122</v>
       </c>
       <c r="J4" t="n">
         <v>522.0635703700254</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>643.4826507627596</v>
+        <v>643.4826507627594</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,19 +27381,19 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>219.9844192126098</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>254.489886823085</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>346.3391791168841</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>379.9226978561831</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>396.636963852737</v>
+        <v>142.7842906537955</v>
       </c>
       <c r="Y2" t="n">
-        <v>8.410185659847173</v>
+        <v>396.9273063213908</v>
       </c>
     </row>
     <row r="3">
@@ -27542,22 +27542,22 @@
         <v>169.3824387139007</v>
       </c>
       <c r="D4" t="n">
-        <v>157.8996982303191</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>159.3017069803637</v>
       </c>
       <c r="F4" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>148.1113806425979</v>
       </c>
       <c r="I4" t="n">
-        <v>115.1825854367171</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,22 +27584,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.41999114135434</v>
+        <v>52.08993616396599</v>
       </c>
       <c r="S4" t="n">
-        <v>184.5278504388888</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>157.0045112004825</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>279.9701659793371</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>18.19522188379989</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>307.7994123985592</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>133.9282644538401</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>219.9844192126098</v>
@@ -27678,7 +27678,7 @@
         <v>346.3391791168841</v>
       </c>
       <c r="W5" t="n">
-        <v>379.9226978561831</v>
+        <v>132.0461841938233</v>
       </c>
       <c r="X5" t="n">
         <v>396.636963852737</v>
@@ -27788,10 +27788,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>115.1825854367171</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>84.41999114135434</v>
       </c>
       <c r="S7" t="n">
         <v>184.5278504388888</v>
@@ -27830,10 +27830,10 @@
         <v>237.1532516330649</v>
       </c>
       <c r="U7" t="n">
-        <v>279.9701659793371</v>
+        <v>109.9838801706528</v>
       </c>
       <c r="V7" t="n">
-        <v>94.37966676135628</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>222.4883416251229</v>
       </c>
     </row>
     <row r="8">
@@ -27852,22 +27852,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>145.4111437922969</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>288.2944038307106</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27906,19 +27906,19 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>219.9844192126098</v>
       </c>
       <c r="U8" t="n">
         <v>254.489886823085</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>346.3391791168841</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>379.9226978561831</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>396.636963852737</v>
       </c>
       <c r="Y8" t="n">
         <v>396.9273063213908</v>
@@ -28019,16 +28019,16 @@
         <v>157.8996982303191</v>
       </c>
       <c r="E10" t="n">
-        <v>159.3017069803637</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>162.9848146305146</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>165.577887163712</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>148.1113806425979</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28067,16 +28067,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>23.12472639190929</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>271.1468876098733</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>276.2789678462144</v>
       </c>
       <c r="X10" t="n">
-        <v>170.535215949722</v>
+        <v>235.9604235189134</v>
       </c>
       <c r="Y10" t="n">
         <v>222.4883416251229</v>
@@ -32478,19 +32478,19 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>-1.201113364269831e-13</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>-1.336470047518938e-13</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>-1.358095530124212e-13</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>-1.282411098041085e-13</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>-1.094508202548719e-13</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552904</v>
       </c>
       <c r="H23" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096869</v>
       </c>
       <c r="I23" t="n">
-        <v>6.602265846947865</v>
+        <v>6.602265846947842</v>
       </c>
       <c r="J23" t="n">
-        <v>14.53496040275965</v>
+        <v>14.5349604027596</v>
       </c>
       <c r="K23" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394505</v>
       </c>
       <c r="L23" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064902</v>
       </c>
       <c r="M23" t="n">
-        <v>30.07068576351427</v>
+        <v>30.07068576351417</v>
       </c>
       <c r="N23" t="n">
-        <v>30.55726089710199</v>
+        <v>30.55726089710189</v>
       </c>
       <c r="O23" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323021</v>
       </c>
       <c r="P23" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202148</v>
       </c>
       <c r="Q23" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163514</v>
       </c>
       <c r="R23" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949127</v>
       </c>
       <c r="S23" t="n">
-        <v>3.902448167753699</v>
+        <v>3.902448167753685</v>
       </c>
       <c r="T23" t="n">
-        <v>0.749663932170787</v>
+        <v>0.7496639321707843</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442323</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.09162891267106923</v>
+        <v>0.09162891267106892</v>
       </c>
       <c r="H24" t="n">
-        <v>0.8849423934284847</v>
+        <v>0.8849423934284816</v>
       </c>
       <c r="I24" t="n">
-        <v>3.154767388017077</v>
+        <v>3.154767388017066</v>
       </c>
       <c r="J24" t="n">
-        <v>8.656922841436415</v>
+        <v>8.656922841436385</v>
       </c>
       <c r="K24" t="n">
-        <v>14.79605999039805</v>
+        <v>14.796059990398</v>
       </c>
       <c r="L24" t="n">
-        <v>19.89512860430387</v>
+        <v>19.8951286043038</v>
       </c>
       <c r="M24" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863005</v>
       </c>
       <c r="N24" t="n">
-        <v>23.83115303720059</v>
+        <v>23.83115303720051</v>
       </c>
       <c r="O24" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538367</v>
       </c>
       <c r="P24" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821491</v>
       </c>
       <c r="Q24" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622276</v>
       </c>
       <c r="R24" t="n">
-        <v>5.68903020952481</v>
+        <v>5.68903020952479</v>
       </c>
       <c r="S24" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745512</v>
       </c>
       <c r="T24" t="n">
-        <v>0.369328819055757</v>
+        <v>0.3693288190557557</v>
       </c>
       <c r="U24" t="n">
-        <v>0.006028217938886137</v>
+        <v>0.006028217938886115</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.07681860236875662</v>
+        <v>0.07681860236875636</v>
       </c>
       <c r="H25" t="n">
-        <v>0.6829872101513095</v>
+        <v>0.682987210151307</v>
       </c>
       <c r="I25" t="n">
-        <v>2.3101448785077</v>
+        <v>2.310144878507692</v>
       </c>
       <c r="J25" t="n">
-        <v>5.431075187471094</v>
+        <v>5.431075187471074</v>
       </c>
       <c r="K25" t="n">
-        <v>8.924924893388269</v>
+        <v>8.924924893388237</v>
       </c>
       <c r="L25" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194422</v>
       </c>
       <c r="M25" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676787</v>
       </c>
       <c r="N25" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521161</v>
       </c>
       <c r="O25" t="n">
-        <v>10.85796026935844</v>
+        <v>10.8579602693584</v>
       </c>
       <c r="P25" t="n">
-        <v>9.290860781035798</v>
+        <v>9.290860781035766</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987408</v>
       </c>
       <c r="R25" t="n">
-        <v>3.454043702871547</v>
+        <v>3.454043702871535</v>
       </c>
       <c r="S25" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008235</v>
       </c>
       <c r="T25" t="n">
-        <v>0.3282249373937782</v>
+        <v>0.3282249373937771</v>
       </c>
       <c r="U25" t="n">
-        <v>0.004190105583750366</v>
+        <v>0.004190105583750351</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552904</v>
       </c>
       <c r="H26" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096869</v>
       </c>
       <c r="I26" t="n">
-        <v>6.602265846947865</v>
+        <v>6.602265846947842</v>
       </c>
       <c r="J26" t="n">
-        <v>14.53496040275965</v>
+        <v>14.5349604027596</v>
       </c>
       <c r="K26" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394505</v>
       </c>
       <c r="L26" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064902</v>
       </c>
       <c r="M26" t="n">
-        <v>30.07068576351427</v>
+        <v>30.07068576351417</v>
       </c>
       <c r="N26" t="n">
-        <v>30.55726089710199</v>
+        <v>30.55726089710189</v>
       </c>
       <c r="O26" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323021</v>
       </c>
       <c r="P26" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202148</v>
       </c>
       <c r="Q26" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163514</v>
       </c>
       <c r="R26" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949127</v>
       </c>
       <c r="S26" t="n">
-        <v>3.902448167753699</v>
+        <v>3.902448167753685</v>
       </c>
       <c r="T26" t="n">
-        <v>0.749663932170787</v>
+        <v>0.7496639321707843</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442323</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.09162891267106923</v>
+        <v>0.09162891267106892</v>
       </c>
       <c r="H27" t="n">
-        <v>0.8849423934284847</v>
+        <v>0.8849423934284816</v>
       </c>
       <c r="I27" t="n">
-        <v>3.154767388017077</v>
+        <v>3.154767388017066</v>
       </c>
       <c r="J27" t="n">
-        <v>8.656922841436415</v>
+        <v>8.656922841436385</v>
       </c>
       <c r="K27" t="n">
-        <v>14.79605999039805</v>
+        <v>14.796059990398</v>
       </c>
       <c r="L27" t="n">
-        <v>19.89512860430387</v>
+        <v>19.8951286043038</v>
       </c>
       <c r="M27" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863005</v>
       </c>
       <c r="N27" t="n">
-        <v>23.83115303720059</v>
+        <v>23.83115303720051</v>
       </c>
       <c r="O27" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538367</v>
       </c>
       <c r="P27" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821491</v>
       </c>
       <c r="Q27" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622276</v>
       </c>
       <c r="R27" t="n">
-        <v>5.68903020952481</v>
+        <v>5.68903020952479</v>
       </c>
       <c r="S27" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745512</v>
       </c>
       <c r="T27" t="n">
-        <v>0.369328819055757</v>
+        <v>0.3693288190557557</v>
       </c>
       <c r="U27" t="n">
-        <v>0.006028217938886137</v>
+        <v>0.006028217938886115</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.07681860236875662</v>
+        <v>0.07681860236875636</v>
       </c>
       <c r="H28" t="n">
-        <v>0.6829872101513095</v>
+        <v>0.682987210151307</v>
       </c>
       <c r="I28" t="n">
-        <v>2.3101448785077</v>
+        <v>2.310144878507692</v>
       </c>
       <c r="J28" t="n">
-        <v>5.431075187471094</v>
+        <v>5.431075187471074</v>
       </c>
       <c r="K28" t="n">
-        <v>8.924924893388269</v>
+        <v>8.924924893388237</v>
       </c>
       <c r="L28" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194422</v>
       </c>
       <c r="M28" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676787</v>
       </c>
       <c r="N28" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521161</v>
       </c>
       <c r="O28" t="n">
-        <v>10.85796026935844</v>
+        <v>10.8579602693584</v>
       </c>
       <c r="P28" t="n">
-        <v>9.290860781035798</v>
+        <v>9.290860781035766</v>
       </c>
       <c r="Q28" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987408</v>
       </c>
       <c r="R28" t="n">
-        <v>3.454043702871547</v>
+        <v>3.454043702871535</v>
       </c>
       <c r="S28" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008235</v>
       </c>
       <c r="T28" t="n">
-        <v>0.3282249373937782</v>
+        <v>0.3282249373937771</v>
       </c>
       <c r="U28" t="n">
-        <v>0.004190105583750366</v>
+        <v>0.004190105583750351</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552904</v>
       </c>
       <c r="H29" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096869</v>
       </c>
       <c r="I29" t="n">
-        <v>6.602265846947865</v>
+        <v>6.602265846947842</v>
       </c>
       <c r="J29" t="n">
-        <v>14.53496040275965</v>
+        <v>14.5349604027596</v>
       </c>
       <c r="K29" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394505</v>
       </c>
       <c r="L29" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064902</v>
       </c>
       <c r="M29" t="n">
-        <v>30.07068576351427</v>
+        <v>30.07068576351417</v>
       </c>
       <c r="N29" t="n">
-        <v>30.55726089710199</v>
+        <v>30.55726089710189</v>
       </c>
       <c r="O29" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323021</v>
       </c>
       <c r="P29" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202148</v>
       </c>
       <c r="Q29" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163514</v>
       </c>
       <c r="R29" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949127</v>
       </c>
       <c r="S29" t="n">
-        <v>3.902448167753699</v>
+        <v>3.902448167753685</v>
       </c>
       <c r="T29" t="n">
-        <v>0.749663932170787</v>
+        <v>0.7496639321707843</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442323</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09162891267106923</v>
+        <v>0.09162891267106892</v>
       </c>
       <c r="H30" t="n">
-        <v>0.8849423934284847</v>
+        <v>0.8849423934284816</v>
       </c>
       <c r="I30" t="n">
-        <v>3.154767388017077</v>
+        <v>3.154767388017066</v>
       </c>
       <c r="J30" t="n">
-        <v>8.656922841436415</v>
+        <v>8.656922841436385</v>
       </c>
       <c r="K30" t="n">
-        <v>14.79605999039805</v>
+        <v>14.796059990398</v>
       </c>
       <c r="L30" t="n">
-        <v>19.89512860430387</v>
+        <v>19.8951286043038</v>
       </c>
       <c r="M30" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863005</v>
       </c>
       <c r="N30" t="n">
-        <v>23.83115303720059</v>
+        <v>23.83115303720051</v>
       </c>
       <c r="O30" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538367</v>
       </c>
       <c r="P30" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821491</v>
       </c>
       <c r="Q30" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622276</v>
       </c>
       <c r="R30" t="n">
-        <v>5.68903020952481</v>
+        <v>5.68903020952479</v>
       </c>
       <c r="S30" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745512</v>
       </c>
       <c r="T30" t="n">
-        <v>0.369328819055757</v>
+        <v>0.3693288190557557</v>
       </c>
       <c r="U30" t="n">
-        <v>0.006028217938886137</v>
+        <v>0.006028217938886115</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07681860236875662</v>
+        <v>0.07681860236875636</v>
       </c>
       <c r="H31" t="n">
-        <v>0.6829872101513095</v>
+        <v>0.682987210151307</v>
       </c>
       <c r="I31" t="n">
-        <v>2.3101448785077</v>
+        <v>2.310144878507692</v>
       </c>
       <c r="J31" t="n">
-        <v>5.431075187471094</v>
+        <v>5.431075187471074</v>
       </c>
       <c r="K31" t="n">
-        <v>8.924924893388269</v>
+        <v>8.924924893388237</v>
       </c>
       <c r="L31" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194422</v>
       </c>
       <c r="M31" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676787</v>
       </c>
       <c r="N31" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521161</v>
       </c>
       <c r="O31" t="n">
-        <v>10.85796026935844</v>
+        <v>10.8579602693584</v>
       </c>
       <c r="P31" t="n">
-        <v>9.290860781035798</v>
+        <v>9.290860781035766</v>
       </c>
       <c r="Q31" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987408</v>
       </c>
       <c r="R31" t="n">
-        <v>3.454043702871547</v>
+        <v>3.454043702871535</v>
       </c>
       <c r="S31" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008235</v>
       </c>
       <c r="T31" t="n">
-        <v>0.3282249373937782</v>
+        <v>0.3282249373937771</v>
       </c>
       <c r="U31" t="n">
-        <v>0.004190105583750366</v>
+        <v>0.004190105583750351</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552904</v>
       </c>
       <c r="H32" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096869</v>
       </c>
       <c r="I32" t="n">
-        <v>6.602265846947865</v>
+        <v>6.602265846947842</v>
       </c>
       <c r="J32" t="n">
-        <v>14.53496040275965</v>
+        <v>14.5349604027596</v>
       </c>
       <c r="K32" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394505</v>
       </c>
       <c r="L32" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064902</v>
       </c>
       <c r="M32" t="n">
-        <v>30.07068576351427</v>
+        <v>30.07068576351417</v>
       </c>
       <c r="N32" t="n">
-        <v>30.55726089710199</v>
+        <v>30.55726089710189</v>
       </c>
       <c r="O32" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323021</v>
       </c>
       <c r="P32" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202148</v>
       </c>
       <c r="Q32" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163514</v>
       </c>
       <c r="R32" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949127</v>
       </c>
       <c r="S32" t="n">
-        <v>3.902448167753699</v>
+        <v>3.902448167753685</v>
       </c>
       <c r="T32" t="n">
-        <v>0.749663932170787</v>
+        <v>0.7496639321707843</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442323</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.09162891267106923</v>
+        <v>0.09162891267106892</v>
       </c>
       <c r="H33" t="n">
-        <v>0.8849423934284847</v>
+        <v>0.8849423934284816</v>
       </c>
       <c r="I33" t="n">
-        <v>3.154767388017077</v>
+        <v>3.154767388017066</v>
       </c>
       <c r="J33" t="n">
-        <v>8.656922841436415</v>
+        <v>8.656922841436385</v>
       </c>
       <c r="K33" t="n">
-        <v>14.79605999039805</v>
+        <v>14.796059990398</v>
       </c>
       <c r="L33" t="n">
-        <v>19.89512860430387</v>
+        <v>19.8951286043038</v>
       </c>
       <c r="M33" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863005</v>
       </c>
       <c r="N33" t="n">
-        <v>23.83115303720059</v>
+        <v>23.83115303720051</v>
       </c>
       <c r="O33" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538367</v>
       </c>
       <c r="P33" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821491</v>
       </c>
       <c r="Q33" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622276</v>
       </c>
       <c r="R33" t="n">
-        <v>5.68903020952481</v>
+        <v>5.68903020952479</v>
       </c>
       <c r="S33" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745512</v>
       </c>
       <c r="T33" t="n">
-        <v>0.369328819055757</v>
+        <v>0.3693288190557557</v>
       </c>
       <c r="U33" t="n">
-        <v>0.006028217938886137</v>
+        <v>0.006028217938886115</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.07681860236875662</v>
+        <v>0.07681860236875636</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6829872101513095</v>
+        <v>0.682987210151307</v>
       </c>
       <c r="I34" t="n">
-        <v>2.3101448785077</v>
+        <v>2.310144878507692</v>
       </c>
       <c r="J34" t="n">
-        <v>5.431075187471094</v>
+        <v>5.431075187471074</v>
       </c>
       <c r="K34" t="n">
-        <v>8.924924893388269</v>
+        <v>8.924924893388237</v>
       </c>
       <c r="L34" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194422</v>
       </c>
       <c r="M34" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676787</v>
       </c>
       <c r="N34" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521161</v>
       </c>
       <c r="O34" t="n">
-        <v>10.85796026935844</v>
+        <v>10.8579602693584</v>
       </c>
       <c r="P34" t="n">
-        <v>9.290860781035798</v>
+        <v>9.290860781035766</v>
       </c>
       <c r="Q34" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987408</v>
       </c>
       <c r="R34" t="n">
-        <v>3.454043702871547</v>
+        <v>3.454043702871535</v>
       </c>
       <c r="S34" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008235</v>
       </c>
       <c r="T34" t="n">
-        <v>0.3282249373937782</v>
+        <v>0.3282249373937771</v>
       </c>
       <c r="U34" t="n">
-        <v>0.004190105583750366</v>
+        <v>0.004190105583750351</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552904</v>
       </c>
       <c r="H35" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096869</v>
       </c>
       <c r="I35" t="n">
-        <v>6.602265846947865</v>
+        <v>6.602265846947842</v>
       </c>
       <c r="J35" t="n">
-        <v>14.53496040275965</v>
+        <v>14.5349604027596</v>
       </c>
       <c r="K35" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394505</v>
       </c>
       <c r="L35" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064902</v>
       </c>
       <c r="M35" t="n">
-        <v>30.07068576351427</v>
+        <v>30.07068576351417</v>
       </c>
       <c r="N35" t="n">
-        <v>30.55726089710199</v>
+        <v>30.55726089710189</v>
       </c>
       <c r="O35" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323021</v>
       </c>
       <c r="P35" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202148</v>
       </c>
       <c r="Q35" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163514</v>
       </c>
       <c r="R35" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949127</v>
       </c>
       <c r="S35" t="n">
-        <v>3.902448167753699</v>
+        <v>3.902448167753685</v>
       </c>
       <c r="T35" t="n">
-        <v>0.749663932170787</v>
+        <v>0.7496639321707843</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442323</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.09162891267106923</v>
+        <v>0.09162891267106892</v>
       </c>
       <c r="H36" t="n">
-        <v>0.8849423934284847</v>
+        <v>0.8849423934284816</v>
       </c>
       <c r="I36" t="n">
-        <v>3.154767388017077</v>
+        <v>3.154767388017066</v>
       </c>
       <c r="J36" t="n">
-        <v>8.656922841436415</v>
+        <v>8.656922841436385</v>
       </c>
       <c r="K36" t="n">
-        <v>14.79605999039805</v>
+        <v>14.796059990398</v>
       </c>
       <c r="L36" t="n">
-        <v>19.89512860430387</v>
+        <v>19.8951286043038</v>
       </c>
       <c r="M36" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863005</v>
       </c>
       <c r="N36" t="n">
-        <v>23.83115303720059</v>
+        <v>23.83115303720051</v>
       </c>
       <c r="O36" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538367</v>
       </c>
       <c r="P36" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821491</v>
       </c>
       <c r="Q36" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622276</v>
       </c>
       <c r="R36" t="n">
-        <v>5.68903020952481</v>
+        <v>5.68903020952479</v>
       </c>
       <c r="S36" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745512</v>
       </c>
       <c r="T36" t="n">
-        <v>0.369328819055757</v>
+        <v>0.3693288190557557</v>
       </c>
       <c r="U36" t="n">
-        <v>0.006028217938886137</v>
+        <v>0.006028217938886115</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.07681860236875662</v>
+        <v>0.07681860236875636</v>
       </c>
       <c r="H37" t="n">
-        <v>0.6829872101513095</v>
+        <v>0.682987210151307</v>
       </c>
       <c r="I37" t="n">
-        <v>2.3101448785077</v>
+        <v>2.310144878507692</v>
       </c>
       <c r="J37" t="n">
-        <v>5.431075187471094</v>
+        <v>5.431075187471074</v>
       </c>
       <c r="K37" t="n">
-        <v>8.924924893388269</v>
+        <v>8.924924893388237</v>
       </c>
       <c r="L37" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194422</v>
       </c>
       <c r="M37" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676787</v>
       </c>
       <c r="N37" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521161</v>
       </c>
       <c r="O37" t="n">
-        <v>10.85796026935844</v>
+        <v>10.8579602693584</v>
       </c>
       <c r="P37" t="n">
-        <v>9.290860781035798</v>
+        <v>9.290860781035766</v>
       </c>
       <c r="Q37" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987408</v>
       </c>
       <c r="R37" t="n">
-        <v>3.454043702871547</v>
+        <v>3.454043702871535</v>
       </c>
       <c r="S37" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008235</v>
       </c>
       <c r="T37" t="n">
-        <v>0.3282249373937782</v>
+        <v>0.3282249373937771</v>
       </c>
       <c r="U37" t="n">
-        <v>0.004190105583750366</v>
+        <v>0.004190105583750351</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1712538965552911</v>
+        <v>0.1712538965552904</v>
       </c>
       <c r="H38" t="n">
-        <v>1.753853968096875</v>
+        <v>1.753853968096869</v>
       </c>
       <c r="I38" t="n">
-        <v>6.602265846947865</v>
+        <v>6.602265846947842</v>
       </c>
       <c r="J38" t="n">
-        <v>14.53496040275965</v>
+        <v>14.5349604027596</v>
       </c>
       <c r="K38" t="n">
-        <v>21.78413784394512</v>
+        <v>21.78413784394505</v>
       </c>
       <c r="L38" t="n">
-        <v>27.02514928064912</v>
+        <v>27.02514928064902</v>
       </c>
       <c r="M38" t="n">
-        <v>30.07068576351427</v>
+        <v>30.07068576351417</v>
       </c>
       <c r="N38" t="n">
-        <v>30.55726089710199</v>
+        <v>30.55726089710189</v>
       </c>
       <c r="O38" t="n">
-        <v>28.85435496323032</v>
+        <v>28.85435496323021</v>
       </c>
       <c r="P38" t="n">
-        <v>24.62652439202157</v>
+        <v>24.62652439202148</v>
       </c>
       <c r="Q38" t="n">
-        <v>18.4934942216352</v>
+        <v>18.49349422163514</v>
       </c>
       <c r="R38" t="n">
-        <v>10.75752757949131</v>
+        <v>10.75752757949127</v>
       </c>
       <c r="S38" t="n">
-        <v>3.902448167753699</v>
+        <v>3.902448167753685</v>
       </c>
       <c r="T38" t="n">
-        <v>0.749663932170787</v>
+        <v>0.7496639321707843</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01370031172442328</v>
+        <v>0.01370031172442323</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.09162891267106923</v>
+        <v>0.09162891267106892</v>
       </c>
       <c r="H39" t="n">
-        <v>0.8849423934284847</v>
+        <v>0.8849423934284816</v>
       </c>
       <c r="I39" t="n">
-        <v>3.154767388017077</v>
+        <v>3.154767388017066</v>
       </c>
       <c r="J39" t="n">
-        <v>8.656922841436415</v>
+        <v>8.656922841436385</v>
       </c>
       <c r="K39" t="n">
-        <v>14.79605999039805</v>
+        <v>14.796059990398</v>
       </c>
       <c r="L39" t="n">
-        <v>19.89512860430387</v>
+        <v>19.8951286043038</v>
       </c>
       <c r="M39" t="n">
-        <v>23.21667668863013</v>
+        <v>23.21667668863005</v>
       </c>
       <c r="N39" t="n">
-        <v>23.83115303720059</v>
+        <v>23.83115303720051</v>
       </c>
       <c r="O39" t="n">
-        <v>21.80084923538374</v>
+        <v>21.80084923538367</v>
       </c>
       <c r="P39" t="n">
-        <v>17.49710350821497</v>
+        <v>17.49710350821491</v>
       </c>
       <c r="Q39" t="n">
-        <v>11.6963503262228</v>
+        <v>11.69635032622276</v>
       </c>
       <c r="R39" t="n">
-        <v>5.68903020952481</v>
+        <v>5.68903020952479</v>
       </c>
       <c r="S39" t="n">
-        <v>1.701966864745518</v>
+        <v>1.701966864745512</v>
       </c>
       <c r="T39" t="n">
-        <v>0.369328819055757</v>
+        <v>0.3693288190557557</v>
       </c>
       <c r="U39" t="n">
-        <v>0.006028217938886137</v>
+        <v>0.006028217938886115</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.07681860236875662</v>
+        <v>0.07681860236875636</v>
       </c>
       <c r="H40" t="n">
-        <v>0.6829872101513095</v>
+        <v>0.682987210151307</v>
       </c>
       <c r="I40" t="n">
-        <v>2.3101448785077</v>
+        <v>2.310144878507692</v>
       </c>
       <c r="J40" t="n">
-        <v>5.431075187471094</v>
+        <v>5.431075187471074</v>
       </c>
       <c r="K40" t="n">
-        <v>8.924924893388269</v>
+        <v>8.924924893388237</v>
       </c>
       <c r="L40" t="n">
-        <v>11.42083111944224</v>
+        <v>11.4208311194422</v>
       </c>
       <c r="M40" t="n">
-        <v>12.04166509676791</v>
+        <v>12.04166509676787</v>
       </c>
       <c r="N40" t="n">
-        <v>11.75534121521165</v>
+        <v>11.75534121521161</v>
       </c>
       <c r="O40" t="n">
-        <v>10.85796026935844</v>
+        <v>10.8579602693584</v>
       </c>
       <c r="P40" t="n">
-        <v>9.290860781035798</v>
+        <v>9.290860781035766</v>
       </c>
       <c r="Q40" t="n">
-        <v>6.432510421987431</v>
+        <v>6.432510421987408</v>
       </c>
       <c r="R40" t="n">
-        <v>3.454043702871547</v>
+        <v>3.454043702871535</v>
       </c>
       <c r="S40" t="n">
-        <v>1.33873873400824</v>
+        <v>1.338738734008235</v>
       </c>
       <c r="T40" t="n">
-        <v>0.3282249373937782</v>
+        <v>0.3282249373937771</v>
       </c>
       <c r="U40" t="n">
-        <v>0.004190105583750366</v>
+        <v>0.004190105583750351</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K2" t="n">
-        <v>500.9700927793178</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
+        <v>0</v>
+      </c>
+      <c r="O2" t="n">
+        <v>400.9092955204429</v>
+      </c>
+      <c r="P2" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="O2" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
-      </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>40.9663087773382</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L3" t="n">
-        <v>471.1119924130246</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>522.0635703700256</v>
+        <v>506.6900639491206</v>
       </c>
       <c r="P3" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R3" t="n">
         <v>29.85810036629282</v>
@@ -34935,22 +34935,22 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>522.0635703700256</v>
       </c>
       <c r="L5" t="n">
-        <v>135.5987266329975</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>522.0635703700256</v>
+        <v>400.9092955204429</v>
       </c>
       <c r="O5" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>522.0635703700256</v>
@@ -35020,25 +35020,25 @@
         <v>460.4103598639381</v>
       </c>
       <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>506.6900639491204</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
         <v>522.0635703700256</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>522.0635703700256</v>
-      </c>
-      <c r="P6" t="n">
-        <v>14.48459394538775</v>
       </c>
       <c r="Q6" t="n">
         <v>353.3782471555388</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>256.7530014825801</v>
       </c>
       <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
         <v>522.0635703700256</v>
       </c>
-      <c r="L8" t="n">
-        <v>460.0037840019794</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>522.0635703700256</v>
+        <v>441.8756042977812</v>
       </c>
       <c r="P8" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>324.4050573689818</v>
       </c>
       <c r="R8" t="n">
-        <v>40.9663087773382</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>522.0635703700256</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>500.9700927793172</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>522.0635703700256</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>506.6900639491203</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35488,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>103.6844238641553</v>
       </c>
       <c r="M12" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>711.0677682281761</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35728,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>656.1344071212706</v>
       </c>
       <c r="M15" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>711.0677682281761</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>473.6101143363514</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>711.0677682281761</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36126,19 +36126,19 @@
         <v>543.5954556656965</v>
       </c>
       <c r="L20" t="n">
-        <v>719.7892927396343</v>
+        <v>719.7892927396342</v>
       </c>
       <c r="M20" t="n">
-        <v>784.1601929209636</v>
+        <v>784.1601929209635</v>
       </c>
       <c r="N20" t="n">
-        <v>760.7889056955737</v>
+        <v>760.7889056955736</v>
       </c>
       <c r="O20" t="n">
-        <v>650.1321781990958</v>
+        <v>650.1321781990957</v>
       </c>
       <c r="P20" t="n">
-        <v>534.50171506985</v>
+        <v>534.5017150698499</v>
       </c>
       <c r="Q20" t="n">
         <v>324.4050573689818</v>
@@ -36199,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>194.760462184478</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>460.4103598639381</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>461.3739449367926</v>
       </c>
       <c r="M21" t="n">
-        <v>851.4920007015825</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>882.4829213248665</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>333.1858818629449</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>567.3796893823536</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>353.3782471555388</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>29.85810036629282</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36360,28 +36360,28 @@
         <v>271.2879618853397</v>
       </c>
       <c r="K23" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096415</v>
       </c>
       <c r="L23" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202833</v>
       </c>
       <c r="M23" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844777</v>
       </c>
       <c r="N23" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926756</v>
       </c>
       <c r="O23" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623261</v>
       </c>
       <c r="P23" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618714</v>
       </c>
       <c r="Q23" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R23" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682947</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>432.2508850414079</v>
       </c>
       <c r="M24" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>584.8767928905685</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>19.65587256647162</v>
+        <v>19.6558725664716</v>
       </c>
       <c r="K25" t="n">
         <v>165.0383872390832</v>
@@ -36524,19 +36524,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M25" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932257</v>
       </c>
       <c r="N25" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O25" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425646</v>
       </c>
       <c r="P25" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q25" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543269</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>271.2879618853397</v>
       </c>
       <c r="K26" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096415</v>
       </c>
       <c r="L26" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202833</v>
       </c>
       <c r="M26" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844777</v>
       </c>
       <c r="N26" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926756</v>
       </c>
       <c r="O26" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623261</v>
       </c>
       <c r="P26" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618706</v>
       </c>
       <c r="Q26" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R26" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682947</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>687.660958825807</v>
       </c>
       <c r="M27" t="n">
-        <v>874.7086773902126</v>
+        <v>109.6645236973624</v>
       </c>
       <c r="N27" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>584.8767928905685</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>19.65587256647162</v>
+        <v>19.6558725664716</v>
       </c>
       <c r="K28" t="n">
         <v>165.0383872390832</v>
@@ -36761,19 +36761,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M28" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932257</v>
       </c>
       <c r="N28" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O28" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425646</v>
       </c>
       <c r="P28" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q28" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543269</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>271.2879618853397</v>
       </c>
       <c r="K29" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096415</v>
       </c>
       <c r="L29" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202833</v>
       </c>
       <c r="M29" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844777</v>
       </c>
       <c r="N29" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926756</v>
       </c>
       <c r="O29" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623261</v>
       </c>
       <c r="P29" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618714</v>
       </c>
       <c r="Q29" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R29" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682947</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,31 +36910,31 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>396.7037544655902</v>
       </c>
       <c r="M30" t="n">
-        <v>421.6433884683614</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>584.8767928905685</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>35.54713057581761</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>19.65587256647162</v>
+        <v>19.6558725664716</v>
       </c>
       <c r="K31" t="n">
         <v>165.0383872390832</v>
@@ -36998,19 +36998,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M31" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932257</v>
       </c>
       <c r="N31" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O31" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425646</v>
       </c>
       <c r="P31" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q31" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543269</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>271.2879618853397</v>
       </c>
       <c r="K32" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096415</v>
       </c>
       <c r="L32" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202833</v>
       </c>
       <c r="M32" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844777</v>
       </c>
       <c r="N32" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926756</v>
       </c>
       <c r="O32" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623261</v>
       </c>
       <c r="P32" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618714</v>
       </c>
       <c r="Q32" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R32" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682947</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,25 +37147,25 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>687.660958825807</v>
       </c>
       <c r="M33" t="n">
-        <v>874.7086773902126</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>279.8033285417088</v>
+        <v>109.6645236973624</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>584.8767928905685</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,7 +37226,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>19.65587256647162</v>
+        <v>19.6558725664716</v>
       </c>
       <c r="K34" t="n">
         <v>165.0383872390832</v>
@@ -37235,19 +37235,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M34" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932257</v>
       </c>
       <c r="N34" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O34" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425646</v>
       </c>
       <c r="P34" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q34" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543269</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37308,28 +37308,28 @@
         <v>271.2879618853397</v>
       </c>
       <c r="K35" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096415</v>
       </c>
       <c r="L35" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202833</v>
       </c>
       <c r="M35" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844777</v>
       </c>
       <c r="N35" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926756</v>
       </c>
       <c r="O35" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623261</v>
       </c>
       <c r="P35" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618714</v>
       </c>
       <c r="Q35" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R35" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682947</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>687.660958825807</v>
       </c>
       <c r="M36" t="n">
-        <v>874.7086773902126</v>
+        <v>109.6645236973624</v>
       </c>
       <c r="N36" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>584.8767928905685</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>19.65587256647162</v>
+        <v>19.6558725664716</v>
       </c>
       <c r="K37" t="n">
         <v>165.0383872390832</v>
@@ -37472,19 +37472,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M37" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932257</v>
       </c>
       <c r="N37" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O37" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425646</v>
       </c>
       <c r="P37" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q37" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543269</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,28 +37545,28 @@
         <v>271.2879618853397</v>
       </c>
       <c r="K38" t="n">
-        <v>565.3795935096416</v>
+        <v>565.3795935096415</v>
       </c>
       <c r="L38" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202833</v>
       </c>
       <c r="M38" t="n">
-        <v>814.2308786844778</v>
+        <v>814.2308786844777</v>
       </c>
       <c r="N38" t="n">
-        <v>791.3461665926757</v>
+        <v>791.3461665926756</v>
       </c>
       <c r="O38" t="n">
-        <v>678.9865331623262</v>
+        <v>678.9865331623261</v>
       </c>
       <c r="P38" t="n">
-        <v>559.1282394618715</v>
+        <v>559.1282394618714</v>
       </c>
       <c r="Q38" t="n">
         <v>342.898551590617</v>
       </c>
       <c r="R38" t="n">
-        <v>51.72383635682951</v>
+        <v>51.72383635682947</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,25 +37621,25 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>203.4173850259144</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>475.2064198543361</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>687.660958825807</v>
       </c>
       <c r="M39" t="n">
-        <v>874.7086773902126</v>
+        <v>109.6645236973624</v>
       </c>
       <c r="N39" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>584.8767928905685</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>19.65587256647162</v>
+        <v>19.6558725664716</v>
       </c>
       <c r="K40" t="n">
         <v>165.0383872390832</v>
@@ -37709,19 +37709,19 @@
         <v>273.9431546346549</v>
       </c>
       <c r="M40" t="n">
-        <v>304.2275806932258</v>
+        <v>304.2275806932257</v>
       </c>
       <c r="N40" t="n">
         <v>295.4308789871816</v>
       </c>
       <c r="O40" t="n">
-        <v>273.0403949425647</v>
+        <v>273.0403949425646</v>
       </c>
       <c r="P40" t="n">
         <v>217.0438307301392</v>
       </c>
       <c r="Q40" t="n">
-        <v>72.62243951543272</v>
+        <v>72.62243951543269</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,10 +37782,10 @@
         <v>271.2879618853398</v>
       </c>
       <c r="K41" t="n">
-        <v>565.3795935096409</v>
+        <v>565.3795935096416</v>
       </c>
       <c r="L41" t="n">
-        <v>746.8144420202834</v>
+        <v>746.8144420202827</v>
       </c>
       <c r="M41" t="n">
         <v>814.2308786844778</v>
@@ -37858,25 +37858,25 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>687.6609588258071</v>
       </c>
       <c r="M42" t="n">
-        <v>874.7086773902126</v>
+        <v>109.6645236973619</v>
       </c>
       <c r="N42" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>279.8033285417088</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38095,31 +38095,31 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>203.4173850259145</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>475.2064198543362</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>396.7037544655901</v>
       </c>
       <c r="M45" t="n">
-        <v>421.6433884683614</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>906.3140743620671</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>732.8686174635599</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>584.8767928905686</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>365.0745974817615</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>35.54713057581764</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
